--- a/_byStates.xlsx
+++ b/_byStates.xlsx
@@ -4498,8 +4498,12 @@
       <c r="B244" t="n">
         <v>0.0516777624663685</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>-0.0216051763747695</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.124960701307506</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7924,8 +7928,12 @@
       <c r="B244" t="n">
         <v>0.218789160018638</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.13100805321042</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.306570266826857</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11350,8 +11358,12 @@
       <c r="B244" t="n">
         <v>0.0936539582168554</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.0358205302408945</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.151487386192816</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -14636,8 +14648,12 @@
       <c r="B234" t="n">
         <v>0.0489098257476737</v>
       </c>
-      <c r="C234"/>
-      <c r="D234"/>
+      <c r="C234" t="n">
+        <v>-0.0135949431231425</v>
+      </c>
+      <c r="D234" t="n">
+        <v>0.11141459461849</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="s">
@@ -14646,8 +14662,12 @@
       <c r="B235" t="n">
         <v>0.0759308616045293</v>
       </c>
-      <c r="C235"/>
-      <c r="D235"/>
+      <c r="C235" t="n">
+        <v>-0.0137306195450172</v>
+      </c>
+      <c r="D235" t="n">
+        <v>0.165592342754076</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="s">
@@ -14656,8 +14676,12 @@
       <c r="B236" t="n">
         <v>0.283047440514197</v>
       </c>
-      <c r="C236"/>
-      <c r="D236"/>
+      <c r="C236" t="n">
+        <v>0.216377567013762</v>
+      </c>
+      <c r="D236" t="n">
+        <v>0.349717314014631</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="s">
@@ -14666,8 +14690,12 @@
       <c r="B237" t="n">
         <v>0.872781887008368</v>
       </c>
-      <c r="C237"/>
-      <c r="D237"/>
+      <c r="C237" t="n">
+        <v>0.78434734654648</v>
+      </c>
+      <c r="D237" t="n">
+        <v>0.961216427470255</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="s">
@@ -14676,8 +14704,12 @@
       <c r="B238" t="n">
         <v>0.802823223208174</v>
       </c>
-      <c r="C238"/>
-      <c r="D238"/>
+      <c r="C238" t="n">
+        <v>0.702570416906675</v>
+      </c>
+      <c r="D238" t="n">
+        <v>0.903076029509673</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="s">
@@ -14686,8 +14718,12 @@
       <c r="B239" t="n">
         <v>0.871287919778842</v>
       </c>
-      <c r="C239"/>
-      <c r="D239"/>
+      <c r="C239" t="n">
+        <v>0.780552304596714</v>
+      </c>
+      <c r="D239" t="n">
+        <v>0.962023534960969</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="s">
@@ -14696,8 +14732,12 @@
       <c r="B240" t="n">
         <v>0.599489487554542</v>
       </c>
-      <c r="C240"/>
-      <c r="D240"/>
+      <c r="C240" t="n">
+        <v>0.490081830907892</v>
+      </c>
+      <c r="D240" t="n">
+        <v>0.708897144201193</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="s">
@@ -14706,8 +14746,12 @@
       <c r="B241" t="n">
         <v>0.144733653497516</v>
       </c>
-      <c r="C241"/>
-      <c r="D241"/>
+      <c r="C241" t="n">
+        <v>0.0378845065684091</v>
+      </c>
+      <c r="D241" t="n">
+        <v>0.251582800426623</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="s">
@@ -14716,8 +14760,12 @@
       <c r="B242" t="n">
         <v>0.180630681197127</v>
       </c>
-      <c r="C242"/>
-      <c r="D242"/>
+      <c r="C242" t="n">
+        <v>0.0838641809973669</v>
+      </c>
+      <c r="D242" t="n">
+        <v>0.277397181396887</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="s">
@@ -14726,8 +14774,12 @@
       <c r="B243" t="n">
         <v>0.369326825607946</v>
       </c>
-      <c r="C243"/>
-      <c r="D243"/>
+      <c r="C243" t="n">
+        <v>0.257673143348866</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.480980507867027</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -14736,8 +14788,12 @@
       <c r="B244" t="n">
         <v>0.00102684868948172</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>-0.00372887573500688</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.00578257311397032</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18162,8 +18218,12 @@
       <c r="B244" t="n">
         <v>0.0844772909067602</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.0323566925565405</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.13659788925698</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18198,13 +18258,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>3.59884016467126</v>
+        <v>3.35098268470399</v>
       </c>
       <c r="C2" t="n">
-        <v>3.34691927144071</v>
+        <v>3.08809521519173</v>
       </c>
       <c r="D2" t="n">
-        <v>3.8507610579018</v>
+        <v>3.61387015421626</v>
       </c>
     </row>
     <row r="3">
@@ -18212,13 +18272,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="n">
-        <v>3.23712809106314</v>
+        <v>3.24072510209808</v>
       </c>
       <c r="C3" t="n">
-        <v>2.64419189191678</v>
+        <v>2.62821992209698</v>
       </c>
       <c r="D3" t="n">
-        <v>3.83006429020951</v>
+        <v>3.85323028209918</v>
       </c>
     </row>
     <row r="4">
@@ -18226,13 +18286,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="n">
-        <v>0.226269459117001</v>
+        <v>0.239373944061665</v>
       </c>
       <c r="C4" t="n">
-        <v>0.116950443672301</v>
+        <v>0.129851599804375</v>
       </c>
       <c r="D4" t="n">
-        <v>0.335588474561701</v>
+        <v>0.348896288318954</v>
       </c>
     </row>
     <row r="5">
@@ -18240,13 +18300,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="n">
-        <v>0.369140423715033</v>
+        <v>0.407885405839884</v>
       </c>
       <c r="C5" t="n">
-        <v>0.264085603653276</v>
+        <v>0.307721190469881</v>
       </c>
       <c r="D5" t="n">
-        <v>0.474195243776791</v>
+        <v>0.508049621209886</v>
       </c>
     </row>
     <row r="6">
@@ -18254,13 +18314,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="n">
-        <v>1.9312293942589</v>
+        <v>2.09458854694134</v>
       </c>
       <c r="C6" t="n">
-        <v>1.50510553332978</v>
+        <v>1.63823010413444</v>
       </c>
       <c r="D6" t="n">
-        <v>2.35735325518803</v>
+        <v>2.55094698974823</v>
       </c>
     </row>
     <row r="7">
@@ -18268,13 +18328,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="n">
-        <v>0.686687108864861</v>
+        <v>0.636270930503547</v>
       </c>
       <c r="C7" t="n">
-        <v>0.546320789697685</v>
+        <v>0.512811152191023</v>
       </c>
       <c r="D7" t="n">
-        <v>0.827053428032036</v>
+        <v>0.75973070881607</v>
       </c>
     </row>
     <row r="8">
@@ -18282,13 +18342,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="n">
-        <v>0.352604685082331</v>
+        <v>0.388720018913512</v>
       </c>
       <c r="C8" t="n">
-        <v>0.257494000337896</v>
+        <v>0.292083541746995</v>
       </c>
       <c r="D8" t="n">
-        <v>0.447715369826765</v>
+        <v>0.485356496080028</v>
       </c>
     </row>
     <row r="9">
@@ -18296,13 +18356,13 @@
         <v>11</v>
       </c>
       <c r="B9" t="n">
-        <v>0.298421360526964</v>
+        <v>0.197484151571264</v>
       </c>
       <c r="C9" t="n">
-        <v>0.205200478676555</v>
+        <v>0.108338364784334</v>
       </c>
       <c r="D9" t="n">
-        <v>0.391642242377374</v>
+        <v>0.286629938358194</v>
       </c>
     </row>
     <row r="10">
@@ -18310,13 +18370,13 @@
         <v>12</v>
       </c>
       <c r="B10" t="n">
-        <v>0.112124106309194</v>
+        <v>0.0916869445245939</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0539737403693149</v>
+        <v>0.0380966255574977</v>
       </c>
       <c r="D10" t="n">
-        <v>0.170274472249073</v>
+        <v>0.14527726349169</v>
       </c>
     </row>
     <row r="11">
@@ -18324,13 +18384,13 @@
         <v>13</v>
       </c>
       <c r="B11" t="n">
-        <v>0.511148624756731</v>
+        <v>0.368496652641392</v>
       </c>
       <c r="C11" t="n">
-        <v>0.38968860657911</v>
+        <v>0.260652897377455</v>
       </c>
       <c r="D11" t="n">
-        <v>0.632608642934352</v>
+        <v>0.476340407905328</v>
       </c>
     </row>
     <row r="12">
@@ -18338,13 +18398,13 @@
         <v>14</v>
       </c>
       <c r="B12" t="n">
-        <v>0.779718272966486</v>
+        <v>0.743948216929892</v>
       </c>
       <c r="C12" t="n">
-        <v>0.669476496675642</v>
+        <v>0.658082933946464</v>
       </c>
       <c r="D12" t="n">
-        <v>0.889960049257329</v>
+        <v>0.829813499913319</v>
       </c>
     </row>
     <row r="13">
@@ -18352,13 +18412,13 @@
         <v>15</v>
       </c>
       <c r="B13" t="n">
-        <v>0.762681810074788</v>
+        <v>0.60866833595977</v>
       </c>
       <c r="C13" t="n">
-        <v>0.641925620791598</v>
+        <v>0.494217106225923</v>
       </c>
       <c r="D13" t="n">
-        <v>0.883437999357978</v>
+        <v>0.723119565693616</v>
       </c>
     </row>
     <row r="14">
@@ -18366,13 +18426,13 @@
         <v>16</v>
       </c>
       <c r="B14" t="n">
-        <v>0.995800373174396</v>
+        <v>0.853046773605426</v>
       </c>
       <c r="C14" t="n">
-        <v>0.908419967240981</v>
+        <v>0.759418599324992</v>
       </c>
       <c r="D14" t="n">
-        <v>1.08318077910781</v>
+        <v>0.946674947885859</v>
       </c>
     </row>
     <row r="15">
@@ -18380,13 +18440,13 @@
         <v>17</v>
       </c>
       <c r="B15" t="n">
-        <v>0.656754105992164</v>
+        <v>0.534335384833678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.554804519972656</v>
+        <v>0.431549533957679</v>
       </c>
       <c r="D15" t="n">
-        <v>0.758703692011673</v>
+        <v>0.637121235709678</v>
       </c>
     </row>
     <row r="16">
@@ -18394,13 +18454,13 @@
         <v>18</v>
       </c>
       <c r="B16" t="n">
-        <v>0.042973632043296</v>
+        <v>0.0565220916314449</v>
       </c>
       <c r="C16" t="n">
-        <v>0.000369886507685366</v>
+        <v>0.00777499677272506</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0855773775789066</v>
+        <v>0.105269186490165</v>
       </c>
     </row>
     <row r="17">
@@ -18408,13 +18468,13 @@
         <v>19</v>
       </c>
       <c r="B17" t="n">
-        <v>0.00326504882765561</v>
+        <v>0.00558014485561999</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.0030422805369401</v>
+        <v>-0.0028647284170066</v>
       </c>
       <c r="D17" t="n">
-        <v>0.00957237819225131</v>
+        <v>0.0140250181282466</v>
       </c>
     </row>
     <row r="18">
@@ -18422,13 +18482,13 @@
         <v>20</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0127896080799569</v>
+        <v>0.0213945270512361</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.00365072394416321</v>
+        <v>-0.000600461580962313</v>
       </c>
       <c r="D18" t="n">
-        <v>0.029229940104077</v>
+        <v>0.0433895156834345</v>
       </c>
     </row>
     <row r="19">
@@ -18436,13 +18496,13 @@
         <v>21</v>
       </c>
       <c r="B19" t="n">
-        <v>0.00280558779825061</v>
+        <v>0.00582761776950565</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.00443756007472601</v>
+        <v>-0.00465757914002281</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0100487356712272</v>
+        <v>0.0163128146790341</v>
       </c>
     </row>
     <row r="20">
@@ -18450,13 +18510,13 @@
         <v>22</v>
       </c>
       <c r="B20" t="n">
-        <v>0.00778019496291266</v>
+        <v>0.0137480091666323</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.00715393775602218</v>
+        <v>-0.00530342030558581</v>
       </c>
       <c r="D20" t="n">
-        <v>0.0227143276818475</v>
+        <v>0.0327994386388504</v>
       </c>
     </row>
     <row r="21">
@@ -18464,13 +18524,13 @@
         <v>23</v>
       </c>
       <c r="B21" t="n">
-        <v>0.112164270060041</v>
+        <v>0.116945303884483</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0453273013557492</v>
+        <v>0.0537683350032112</v>
       </c>
       <c r="D21" t="n">
-        <v>0.179001238764333</v>
+        <v>0.180122272765755</v>
       </c>
     </row>
     <row r="22">
@@ -18478,13 +18538,13 @@
         <v>24</v>
       </c>
       <c r="B22" t="n">
-        <v>0.0467119391262463</v>
+        <v>0.0647191099393436</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00223662377905722</v>
+        <v>0.0185713880627164</v>
       </c>
       <c r="D22" t="n">
-        <v>0.0911872544734353</v>
+        <v>0.110866831815971</v>
       </c>
     </row>
     <row r="23">
@@ -18492,13 +18552,13 @@
         <v>25</v>
       </c>
       <c r="B23" t="n">
-        <v>0.0161760461717666</v>
+        <v>0.0310436306807913</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.00640987292366004</v>
+        <v>-0.00101971611036736</v>
       </c>
       <c r="D23" t="n">
-        <v>0.0387619652671932</v>
+        <v>0.0631069774719499</v>
       </c>
     </row>
     <row r="24">
@@ -18506,13 +18566,13 @@
         <v>26</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0505736289752686</v>
+        <v>0.0666737049080007</v>
       </c>
       <c r="C24" t="n">
-        <v>0.00266447779273056</v>
+        <v>0.012840563684073</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0984827801578067</v>
+        <v>0.120506846131929</v>
       </c>
     </row>
     <row r="25">
@@ -18520,13 +18580,13 @@
         <v>27</v>
       </c>
       <c r="B25" t="n">
-        <v>0.000421231976617541</v>
+        <v>0.000502065742287948</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.00262713493735293</v>
+        <v>-0.00302694048011253</v>
       </c>
       <c r="D25" t="n">
-        <v>0.00346959889058802</v>
+        <v>0.00403107196468843</v>
       </c>
     </row>
     <row r="26">
@@ -18534,13 +18594,13 @@
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>0.00488629092876347</v>
+        <v>0.0104348617395357</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.00778822019291277</v>
+        <v>-0.00799402942355949</v>
       </c>
       <c r="D26" t="n">
-        <v>0.0175608020504397</v>
+        <v>0.028863752902631</v>
       </c>
     </row>
     <row r="27">
@@ -18548,13 +18608,13 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>0.0085875909542281</v>
+        <v>0.0126786894030433</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.00371561150796701</v>
+        <v>-0.00261690392838173</v>
       </c>
       <c r="D27" t="n">
-        <v>0.0208907934164232</v>
+        <v>0.0279742827344683</v>
       </c>
     </row>
     <row r="28">
@@ -18562,13 +18622,13 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>0.0123845936960219</v>
+        <v>0.0262703004759293</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.012283416179384</v>
+        <v>-0.00974914102469825</v>
       </c>
       <c r="D28" t="n">
-        <v>0.0370526035714277</v>
+        <v>0.0622897419765568</v>
       </c>
     </row>
     <row r="29">
@@ -18576,13 +18636,13 @@
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>0.724855614541223</v>
+        <v>0.567536778535939</v>
       </c>
       <c r="C29" t="n">
-        <v>0.654231472742326</v>
+        <v>0.484006817097865</v>
       </c>
       <c r="D29" t="n">
-        <v>0.79547975634012</v>
+        <v>0.651066739974013</v>
       </c>
     </row>
     <row r="30">
@@ -18590,13 +18650,13 @@
         <v>32</v>
       </c>
       <c r="B30" t="n">
-        <v>0.0125991312369161</v>
+        <v>0.0149861599230142</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.00675136027296117</v>
+        <v>-0.00569349424077358</v>
       </c>
       <c r="D30" t="n">
-        <v>0.0319496227467935</v>
+        <v>0.0356658140868021</v>
       </c>
     </row>
     <row r="31">
@@ -18604,13 +18664,13 @@
         <v>33</v>
       </c>
       <c r="B31" t="n">
-        <v>0.239093560415084</v>
+        <v>0.293439008681508</v>
       </c>
       <c r="C31" t="n">
-        <v>0.140025835931676</v>
+        <v>0.192335682375148</v>
       </c>
       <c r="D31" t="n">
-        <v>0.338161284898492</v>
+        <v>0.394542334987868</v>
       </c>
     </row>
     <row r="32">
@@ -18618,13 +18678,13 @@
         <v>34</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0806522750956969</v>
+        <v>0.121267919244221</v>
       </c>
       <c r="C32" t="n">
-        <v>0.0250187752054508</v>
+        <v>0.0520962857872045</v>
       </c>
       <c r="D32" t="n">
-        <v>0.136285774985943</v>
+        <v>0.190439552701236</v>
       </c>
     </row>
     <row r="33">
@@ -18632,13 +18692,13 @@
         <v>35</v>
       </c>
       <c r="B33" t="n">
-        <v>0.196986920999318</v>
+        <v>0.242253934105516</v>
       </c>
       <c r="C33" t="n">
-        <v>0.115984626979712</v>
+        <v>0.159434675949137</v>
       </c>
       <c r="D33" t="n">
-        <v>0.277989215018923</v>
+        <v>0.325073192261896</v>
       </c>
     </row>
     <row r="34">
@@ -18646,13 +18706,13 @@
         <v>36</v>
       </c>
       <c r="B34" t="n">
-        <v>0.147530430740816</v>
+        <v>0.18149942252753</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0806427623287617</v>
+        <v>0.107934612937841</v>
       </c>
       <c r="D34" t="n">
-        <v>0.214418099152871</v>
+        <v>0.255064232117219</v>
       </c>
     </row>
     <row r="35">
@@ -18660,13 +18720,13 @@
         <v>37</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0834594637906296</v>
+        <v>0.0917226441342748</v>
       </c>
       <c r="C35" t="n">
-        <v>0.0384512962037151</v>
+        <v>0.0480776029950476</v>
       </c>
       <c r="D35" t="n">
-        <v>0.128467631377544</v>
+        <v>0.135367685273502</v>
       </c>
     </row>
     <row r="36">
@@ -18674,13 +18734,13 @@
         <v>38</v>
       </c>
       <c r="B36" t="n">
-        <v>0.068695333734904</v>
+        <v>0.0855897799659462</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0256145215331824</v>
+        <v>0.0398350619776865</v>
       </c>
       <c r="D36" t="n">
-        <v>0.111776145936626</v>
+        <v>0.131344497954206</v>
       </c>
     </row>
     <row r="37">
@@ -18688,13 +18748,13 @@
         <v>39</v>
       </c>
       <c r="B37" t="n">
-        <v>0.030521041656653</v>
+        <v>0.031272357340123</v>
       </c>
       <c r="C37" t="n">
-        <v>0.00653362854809584</v>
+        <v>0.00647759446292242</v>
       </c>
       <c r="D37" t="n">
-        <v>0.0545084547652101</v>
+        <v>0.0560671202173235</v>
       </c>
     </row>
     <row r="38">
@@ -18702,13 +18762,13 @@
         <v>40</v>
       </c>
       <c r="B38" t="n">
-        <v>0.161694126670669</v>
+        <v>0.200463746460653</v>
       </c>
       <c r="C38" t="n">
-        <v>0.0871650694917519</v>
+        <v>0.123328402106533</v>
       </c>
       <c r="D38" t="n">
-        <v>0.236223183849586</v>
+        <v>0.277599090814772</v>
       </c>
     </row>
     <row r="39">
@@ -18716,13 +18776,13 @@
         <v>41</v>
       </c>
       <c r="B39" t="n">
-        <v>0.051879342664909</v>
+        <v>0.0615261798353113</v>
       </c>
       <c r="C39" t="n">
-        <v>0.00860779300552965</v>
+        <v>0.0196366074429693</v>
       </c>
       <c r="D39" t="n">
-        <v>0.0951508923242884</v>
+        <v>0.103415752227653</v>
       </c>
     </row>
     <row r="40">
@@ -18730,13 +18790,13 @@
         <v>42</v>
       </c>
       <c r="B40" t="n">
-        <v>0.180333202192208</v>
+        <v>0.230964790587952</v>
       </c>
       <c r="C40" t="n">
-        <v>0.102901427433614</v>
+        <v>0.154187806052478</v>
       </c>
       <c r="D40" t="n">
-        <v>0.257764976950802</v>
+        <v>0.307741775123426</v>
       </c>
     </row>
     <row r="41">
@@ -18744,13 +18804,13 @@
         <v>43</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0771057158372596</v>
+        <v>0.0878385620816594</v>
       </c>
       <c r="C41" t="n">
-        <v>0.0320871578016785</v>
+        <v>0.0413722431942605</v>
       </c>
       <c r="D41" t="n">
-        <v>0.122124273872841</v>
+        <v>0.134304880969058</v>
       </c>
     </row>
     <row r="42">
@@ -18758,13 +18818,13 @@
         <v>44</v>
       </c>
       <c r="B42" t="n">
-        <v>280.092425574258</v>
+        <v>256.063753102418</v>
       </c>
       <c r="C42" t="n">
-        <v>273.974301342666</v>
+        <v>249.630247903575</v>
       </c>
       <c r="D42" t="n">
-        <v>286.21054980585</v>
+        <v>262.497258301262</v>
       </c>
     </row>
     <row r="43">
@@ -18772,13 +18832,13 @@
         <v>45</v>
       </c>
       <c r="B43" t="n">
-        <v>0.0931601120648131</v>
+        <v>0.0883069060475676</v>
       </c>
       <c r="C43" t="n">
-        <v>0.0532158007061796</v>
+        <v>0.052625284566142</v>
       </c>
       <c r="D43" t="n">
-        <v>0.133104423423447</v>
+        <v>0.123988527528993</v>
       </c>
     </row>
     <row r="44">
@@ -18786,13 +18846,13 @@
         <v>46</v>
       </c>
       <c r="B44" t="n">
-        <v>0.0737826415102058</v>
+        <v>0.0669794496691325</v>
       </c>
       <c r="C44" t="n">
-        <v>0.0291282436264221</v>
+        <v>0.0268139794394725</v>
       </c>
       <c r="D44" t="n">
-        <v>0.118437039393989</v>
+        <v>0.107144919898792</v>
       </c>
     </row>
     <row r="45">
@@ -18800,13 +18860,13 @@
         <v>47</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0184254464235494</v>
+        <v>0.0203419292574425</v>
       </c>
       <c r="C45" t="n">
-        <v>0.00196761910676174</v>
+        <v>0.00450499126196258</v>
       </c>
       <c r="D45" t="n">
-        <v>0.034883273740337</v>
+        <v>0.0361788672529225</v>
       </c>
     </row>
     <row r="46">
@@ -18814,13 +18874,13 @@
         <v>48</v>
       </c>
       <c r="B46" t="n">
-        <v>0.245340388432719</v>
+        <v>0.224847943215075</v>
       </c>
       <c r="C46" t="n">
-        <v>0.179094372712206</v>
+        <v>0.161901634606377</v>
       </c>
       <c r="D46" t="n">
-        <v>0.311586404153232</v>
+        <v>0.287794251823773</v>
       </c>
     </row>
     <row r="47">
@@ -18828,13 +18888,13 @@
         <v>49</v>
       </c>
       <c r="B47" t="n">
-        <v>0.480001715129568</v>
+        <v>0.483502970356677</v>
       </c>
       <c r="C47" t="n">
-        <v>0.241254484281407</v>
+        <v>0.227718951377277</v>
       </c>
       <c r="D47" t="n">
-        <v>0.718748945977729</v>
+        <v>0.739286989336078</v>
       </c>
     </row>
     <row r="48">
@@ -18842,13 +18902,13 @@
         <v>50</v>
       </c>
       <c r="B48" t="n">
-        <v>0.875885673641656</v>
+        <v>0.771713323482876</v>
       </c>
       <c r="C48" t="n">
-        <v>0.723721104242804</v>
+        <v>0.631587622575028</v>
       </c>
       <c r="D48" t="n">
-        <v>1.02805024304051</v>
+        <v>0.911839024390725</v>
       </c>
     </row>
     <row r="49">
@@ -18856,13 +18916,13 @@
         <v>51</v>
       </c>
       <c r="B49" t="n">
-        <v>1.06484447003407</v>
+        <v>0.950852526372696</v>
       </c>
       <c r="C49" t="n">
-        <v>0.986655582170237</v>
+        <v>0.872511565971385</v>
       </c>
       <c r="D49" t="n">
-        <v>1.14303335789789</v>
+        <v>1.02919348677401</v>
       </c>
     </row>
     <row r="50">
@@ -18870,13 +18930,13 @@
         <v>52</v>
       </c>
       <c r="B50" t="n">
-        <v>0.789486605299301</v>
+        <v>0.674202451146701</v>
       </c>
       <c r="C50" t="n">
-        <v>0.631796283318123</v>
+        <v>0.520087874211331</v>
       </c>
       <c r="D50" t="n">
-        <v>0.947176927280479</v>
+        <v>0.828317028082071</v>
       </c>
     </row>
     <row r="51">
@@ -18884,13 +18944,13 @@
         <v>53</v>
       </c>
       <c r="B51" t="n">
-        <v>0.130287292026095</v>
+        <v>0.151549941024088</v>
       </c>
       <c r="C51" t="n">
-        <v>0.0263821165553466</v>
+        <v>0.0504276307254168</v>
       </c>
       <c r="D51" t="n">
-        <v>0.234192467496843</v>
+        <v>0.25267225132276</v>
       </c>
     </row>
     <row r="52">
@@ -18898,13 +18958,13 @@
         <v>54</v>
       </c>
       <c r="B52" t="n">
-        <v>0.349176319430738</v>
+        <v>0.364213084884093</v>
       </c>
       <c r="C52" t="n">
-        <v>0.234668142102227</v>
+        <v>0.245296222205989</v>
       </c>
       <c r="D52" t="n">
-        <v>0.463684496759249</v>
+        <v>0.483129947562197</v>
       </c>
     </row>
     <row r="53">
@@ -18912,13 +18972,13 @@
         <v>55</v>
       </c>
       <c r="B53" t="n">
-        <v>0.802934435641478</v>
+        <v>0.690890488311038</v>
       </c>
       <c r="C53" t="n">
-        <v>0.648616403638402</v>
+        <v>0.547356198503273</v>
       </c>
       <c r="D53" t="n">
-        <v>0.957252467644555</v>
+        <v>0.834424778118802</v>
       </c>
     </row>
     <row r="54">
@@ -18926,13 +18986,13 @@
         <v>56</v>
       </c>
       <c r="B54" t="n">
-        <v>1.0853752391783</v>
+        <v>0.977944337599046</v>
       </c>
       <c r="C54" t="n">
-        <v>1.0547595797096</v>
+        <v>0.949453467328827</v>
       </c>
       <c r="D54" t="n">
-        <v>1.115990898647</v>
+        <v>1.00643520786927</v>
       </c>
     </row>
     <row r="55">
@@ -18940,13 +19000,13 @@
         <v>57</v>
       </c>
       <c r="B55" t="n">
-        <v>0.0530748191653534</v>
+        <v>0.0577876780771316</v>
       </c>
       <c r="C55" t="n">
-        <v>0.002577456214793</v>
+        <v>0.00669110246765063</v>
       </c>
       <c r="D55" t="n">
-        <v>0.103572182115914</v>
+        <v>0.108884253686613</v>
       </c>
     </row>
     <row r="56">
@@ -18954,13 +19014,13 @@
         <v>58</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0191404437594789</v>
+        <v>0.0212273544388886</v>
       </c>
       <c r="C56" t="n">
-        <v>-0.0130482350885764</v>
+        <v>-0.00840819355822936</v>
       </c>
       <c r="D56" t="n">
-        <v>0.0513291226075342</v>
+        <v>0.0508629024360065</v>
       </c>
     </row>
     <row r="57">
@@ -18968,13 +19028,13 @@
         <v>59</v>
       </c>
       <c r="B57" t="n">
-        <v>1.08950407802198</v>
+        <v>0.980981146257091</v>
       </c>
       <c r="C57" t="n">
-        <v>1.07160388544354</v>
+        <v>0.962802030592432</v>
       </c>
       <c r="D57" t="n">
-        <v>1.10740427060043</v>
+        <v>0.999160261921749</v>
       </c>
     </row>
     <row r="58">
@@ -18982,13 +19042,13 @@
         <v>60</v>
       </c>
       <c r="B58" t="n">
-        <v>0.000893914669977409</v>
+        <v>0.000882215116223766</v>
       </c>
       <c r="C58" t="n">
-        <v>-0.00396085854473147</v>
+        <v>-0.00346124919587716</v>
       </c>
       <c r="D58" t="n">
-        <v>0.00574868788468629</v>
+        <v>0.00522567942832469</v>
       </c>
     </row>
     <row r="59">
@@ -18996,13 +19056,13 @@
         <v>61</v>
       </c>
       <c r="B59" t="n">
-        <v>0.00674348090204095</v>
+        <v>0.00856698823335437</v>
       </c>
       <c r="C59" t="n">
-        <v>-0.0044373456430867</v>
+        <v>-0.00246491805720229</v>
       </c>
       <c r="D59" t="n">
-        <v>0.0179243074471686</v>
+        <v>0.019598894523911</v>
       </c>
     </row>
     <row r="60">
@@ -19010,13 +19070,13 @@
         <v>62</v>
       </c>
       <c r="B60" t="n">
-        <v>0.00638597001310048</v>
+        <v>0.00783077163322056</v>
       </c>
       <c r="C60" t="n">
-        <v>-0.00255571647617725</v>
+        <v>-0.00202021392285498</v>
       </c>
       <c r="D60" t="n">
-        <v>0.0153276565023782</v>
+        <v>0.0176817571892961</v>
       </c>
     </row>
     <row r="61">
@@ -19024,13 +19084,13 @@
         <v>63</v>
       </c>
       <c r="B61" t="n">
-        <v>0.27204008592522</v>
+        <v>0.280501792027471</v>
       </c>
       <c r="C61" t="n">
-        <v>0.21259363435165</v>
+        <v>0.221379491052349</v>
       </c>
       <c r="D61" t="n">
-        <v>0.33148653749879</v>
+        <v>0.339624093002594</v>
       </c>
     </row>
     <row r="62">
@@ -19038,13 +19098,13 @@
         <v>64</v>
       </c>
       <c r="B62" t="n">
-        <v>0.699218821836583</v>
+        <v>0.667539379183406</v>
       </c>
       <c r="C62" t="n">
-        <v>0.623135921307147</v>
+        <v>0.597744613422813</v>
       </c>
       <c r="D62" t="n">
-        <v>0.775301722366018</v>
+        <v>0.737334144943998</v>
       </c>
     </row>
     <row r="63">
@@ -19052,13 +19112,13 @@
         <v>65</v>
       </c>
       <c r="B63" t="n">
-        <v>0.877487629713641</v>
+        <v>0.801215604281144</v>
       </c>
       <c r="C63" t="n">
-        <v>0.751509675529041</v>
+        <v>0.681398096661689</v>
       </c>
       <c r="D63" t="n">
-        <v>1.00346558389824</v>
+        <v>0.921033111900599</v>
       </c>
     </row>
     <row r="64">
@@ -19066,13 +19126,13 @@
         <v>66</v>
       </c>
       <c r="B64" t="n">
-        <v>20.6427475401068</v>
+        <v>18.5683473785049</v>
       </c>
       <c r="C64" t="n">
-        <v>20.1018424089047</v>
+        <v>18.0368181138991</v>
       </c>
       <c r="D64" t="n">
-        <v>21.1836526713089</v>
+        <v>19.0998766431106</v>
       </c>
     </row>
     <row r="65">
@@ -19080,13 +19140,13 @@
         <v>67</v>
       </c>
       <c r="B65" t="n">
-        <v>0.825674054612933</v>
+        <v>0.715981948377053</v>
       </c>
       <c r="C65" t="n">
-        <v>0.697754418749487</v>
+        <v>0.598859688636792</v>
       </c>
       <c r="D65" t="n">
-        <v>0.953593690476378</v>
+        <v>0.833104208117313</v>
       </c>
     </row>
     <row r="66">
@@ -19094,13 +19154,13 @@
         <v>68</v>
       </c>
       <c r="B66" t="n">
-        <v>0.827348843507082</v>
+        <v>0.718477235615109</v>
       </c>
       <c r="C66" t="n">
-        <v>0.710177269115348</v>
+        <v>0.607746581872659</v>
       </c>
       <c r="D66" t="n">
-        <v>0.944520417898817</v>
+        <v>0.829207889357559</v>
       </c>
     </row>
     <row r="67">
@@ -19108,13 +19168,13 @@
         <v>69</v>
       </c>
       <c r="B67" t="n">
-        <v>0.850946802757543</v>
+        <v>0.755760210125467</v>
       </c>
       <c r="C67" t="n">
-        <v>0.57262552570443</v>
+        <v>0.51682592876384</v>
       </c>
       <c r="D67" t="n">
-        <v>1.12926807981066</v>
+        <v>0.994694491487093</v>
       </c>
     </row>
     <row r="68">
@@ -19122,13 +19182,13 @@
         <v>70</v>
       </c>
       <c r="B68" t="n">
-        <v>0.852734497615631</v>
+        <v>0.750569274501162</v>
       </c>
       <c r="C68" t="n">
-        <v>0.698953820293697</v>
+        <v>0.602280912721834</v>
       </c>
       <c r="D68" t="n">
-        <v>1.00651517493757</v>
+        <v>0.89885763628049</v>
       </c>
     </row>
     <row r="69">
@@ -19136,13 +19196,13 @@
         <v>71</v>
       </c>
       <c r="B69" t="n">
-        <v>0.760293192456334</v>
+        <v>0.661555747376999</v>
       </c>
       <c r="C69" t="n">
-        <v>0.601609274964888</v>
+        <v>0.512855664163894</v>
       </c>
       <c r="D69" t="n">
-        <v>0.91897710994778</v>
+        <v>0.810255830590103</v>
       </c>
     </row>
     <row r="70">
@@ -19150,13 +19210,13 @@
         <v>72</v>
       </c>
       <c r="B70" t="n">
-        <v>0.885138416611527</v>
+        <v>0.766923503565506</v>
       </c>
       <c r="C70" t="n">
-        <v>0.735091803187979</v>
+        <v>0.629210017545222</v>
       </c>
       <c r="D70" t="n">
-        <v>1.03518503003508</v>
+        <v>0.90463698958579</v>
       </c>
     </row>
     <row r="71">
@@ -19164,13 +19224,13 @@
         <v>73</v>
       </c>
       <c r="B71" t="n">
-        <v>0.86902340649215</v>
+        <v>0.736110170253311</v>
       </c>
       <c r="C71" t="n">
-        <v>0.714838629400114</v>
+        <v>0.583176657974644</v>
       </c>
       <c r="D71" t="n">
-        <v>1.02320818358419</v>
+        <v>0.889043682531978</v>
       </c>
     </row>
     <row r="72">
@@ -19178,13 +19238,13 @@
         <v>74</v>
       </c>
       <c r="B72" t="n">
-        <v>0.923308337159845</v>
+        <v>0.772876134414347</v>
       </c>
       <c r="C72" t="n">
-        <v>0.68614055884005</v>
+        <v>0.512280039614013</v>
       </c>
       <c r="D72" t="n">
-        <v>1.16047611547964</v>
+        <v>1.03347222921468</v>
       </c>
     </row>
     <row r="73">
@@ -19192,13 +19252,13 @@
         <v>75</v>
       </c>
       <c r="B73" t="n">
-        <v>1.52180616612141</v>
+        <v>1.01162373931062</v>
       </c>
       <c r="C73" t="n">
-        <v>1.14042551048608</v>
+        <v>0.626810960635021</v>
       </c>
       <c r="D73" t="n">
-        <v>1.90318682175674</v>
+        <v>1.39643651798621</v>
       </c>
     </row>
     <row r="74">
@@ -19206,13 +19266,13 @@
         <v>76</v>
       </c>
       <c r="B74" t="n">
-        <v>0.356506514649319</v>
+        <v>0.245420845923845</v>
       </c>
       <c r="C74" t="n">
-        <v>-0.116283947959409</v>
+        <v>-0.329272629129287</v>
       </c>
       <c r="D74" t="n">
-        <v>0.829296977258048</v>
+        <v>0.820114320976976</v>
       </c>
     </row>
     <row r="75">
@@ -19220,13 +19280,13 @@
         <v>77</v>
       </c>
       <c r="B75" t="n">
-        <v>1.84386043655984</v>
+        <v>1.9244067631261</v>
       </c>
       <c r="C75" t="n">
-        <v>1.67582090138842</v>
+        <v>1.75099221715278</v>
       </c>
       <c r="D75" t="n">
-        <v>2.01189997173126</v>
+        <v>2.09782130909943</v>
       </c>
     </row>
     <row r="76">
@@ -19234,13 +19294,13 @@
         <v>78</v>
       </c>
       <c r="B76" t="n">
-        <v>0.305672573369318</v>
+        <v>0.307712008335896</v>
       </c>
       <c r="C76" t="n">
-        <v>0.204813643841758</v>
+        <v>0.207250344116759</v>
       </c>
       <c r="D76" t="n">
-        <v>0.406531502896877</v>
+        <v>0.408173672555034</v>
       </c>
     </row>
     <row r="77">
@@ -19248,13 +19308,13 @@
         <v>79</v>
       </c>
       <c r="B77" t="n">
-        <v>0.369007162514432</v>
+        <v>0.195489597885745</v>
       </c>
       <c r="C77" t="n">
-        <v>0.305073399408506</v>
+        <v>0.134096376564259</v>
       </c>
       <c r="D77" t="n">
-        <v>0.432940925620359</v>
+        <v>0.256882819207231</v>
       </c>
     </row>
     <row r="78">
@@ -19262,13 +19322,13 @@
         <v>80</v>
       </c>
       <c r="B78" t="n">
-        <v>0.605753852470836</v>
+        <v>0.462965103857849</v>
       </c>
       <c r="C78" t="n">
-        <v>0.497082553488604</v>
+        <v>0.357507250262134</v>
       </c>
       <c r="D78" t="n">
-        <v>0.714425151453068</v>
+        <v>0.568422957453564</v>
       </c>
     </row>
     <row r="79">
@@ -19276,13 +19336,13 @@
         <v>81</v>
       </c>
       <c r="B79" t="n">
-        <v>0.410447229724685</v>
+        <v>0.374149071525732</v>
       </c>
       <c r="C79" t="n">
-        <v>0.327016911708829</v>
+        <v>0.295037335464104</v>
       </c>
       <c r="D79" t="n">
-        <v>0.493877547740542</v>
+        <v>0.453260807587361</v>
       </c>
     </row>
     <row r="80">
@@ -19290,13 +19350,13 @@
         <v>82</v>
       </c>
       <c r="B80" t="n">
-        <v>0.817376744659331</v>
+        <v>0.835945853295834</v>
       </c>
       <c r="C80" t="n">
-        <v>0.757904680319959</v>
+        <v>0.778922255808977</v>
       </c>
       <c r="D80" t="n">
-        <v>0.876848808998704</v>
+        <v>0.892969450782691</v>
       </c>
     </row>
     <row r="81">
@@ -19304,13 +19364,13 @@
         <v>83</v>
       </c>
       <c r="B81" t="n">
-        <v>0.147308426234907</v>
+        <v>0.0990994691375249</v>
       </c>
       <c r="C81" t="n">
-        <v>0.0961989098690039</v>
+        <v>0.0555593234916688</v>
       </c>
       <c r="D81" t="n">
-        <v>0.198417942600809</v>
+        <v>0.142639614783381</v>
       </c>
     </row>
     <row r="82">
@@ -19318,13 +19378,13 @@
         <v>84</v>
       </c>
       <c r="B82" t="n">
-        <v>0.4501754782799</v>
+        <v>0.250753525475374</v>
       </c>
       <c r="C82" t="n">
-        <v>0.375868455086259</v>
+        <v>0.177654597018177</v>
       </c>
       <c r="D82" t="n">
-        <v>0.524482501473542</v>
+        <v>0.323852453932572</v>
       </c>
     </row>
     <row r="83">
@@ -19332,13 +19392,13 @@
         <v>85</v>
       </c>
       <c r="B83" t="n">
-        <v>0.296860093758916</v>
+        <v>0.273871463823351</v>
       </c>
       <c r="C83" t="n">
-        <v>0.204529856070923</v>
+        <v>0.181869542568445</v>
       </c>
       <c r="D83" t="n">
-        <v>0.38919033144691</v>
+        <v>0.365873385078258</v>
       </c>
     </row>
     <row r="84">
@@ -19346,13 +19406,13 @@
         <v>86</v>
       </c>
       <c r="B84" t="n">
-        <v>0.86665595683081</v>
+        <v>0.929251134335078</v>
       </c>
       <c r="C84" t="n">
-        <v>0.828638872657563</v>
+        <v>0.904796192638947</v>
       </c>
       <c r="D84" t="n">
-        <v>0.904673041004057</v>
+        <v>0.953706076031209</v>
       </c>
     </row>
     <row r="85">
@@ -19360,13 +19420,13 @@
         <v>87</v>
       </c>
       <c r="B85" t="n">
-        <v>0.178455976057114</v>
+        <v>0.238740068424741</v>
       </c>
       <c r="C85" t="n">
-        <v>0.103975554128007</v>
+        <v>0.159891125787187</v>
       </c>
       <c r="D85" t="n">
-        <v>0.252936397986222</v>
+        <v>0.317589011062295</v>
       </c>
     </row>
     <row r="86">
@@ -19374,13 +19434,13 @@
         <v>88</v>
       </c>
       <c r="B86" t="n">
-        <v>0.0575242656420819</v>
+        <v>0.0678762482441983</v>
       </c>
       <c r="C86" t="n">
-        <v>0.016485499332856</v>
+        <v>0.0239271874307756</v>
       </c>
       <c r="D86" t="n">
-        <v>0.0985630319513078</v>
+        <v>0.111825309057621</v>
       </c>
     </row>
     <row r="87">
@@ -19388,13 +19448,13 @@
         <v>89</v>
       </c>
       <c r="B87" t="n">
-        <v>0.318717758356028</v>
+        <v>0.129491788476234</v>
       </c>
       <c r="C87" t="n">
-        <v>0.270789560519821</v>
+        <v>0.0897198352255423</v>
       </c>
       <c r="D87" t="n">
-        <v>0.366645956192235</v>
+        <v>0.169263741726925</v>
       </c>
     </row>
     <row r="88">
@@ -19402,13 +19462,13 @@
         <v>90</v>
       </c>
       <c r="B88" t="n">
-        <v>0.0650784599934344</v>
+        <v>0.0743129654261644</v>
       </c>
       <c r="C88" t="n">
-        <v>0.0385982715888725</v>
+        <v>0.0456971916329189</v>
       </c>
       <c r="D88" t="n">
-        <v>0.0915586483979964</v>
+        <v>0.10292873921941</v>
       </c>
     </row>
     <row r="89">
@@ -19416,13 +19476,13 @@
         <v>91</v>
       </c>
       <c r="B89" t="n">
-        <v>0.596940641544977</v>
+        <v>0.652838029871616</v>
       </c>
       <c r="C89" t="n">
-        <v>0.500556424610084</v>
+        <v>0.561948542813493</v>
       </c>
       <c r="D89" t="n">
-        <v>0.69332485847987</v>
+        <v>0.743727516929739</v>
       </c>
     </row>
     <row r="90">
@@ -19430,13 +19490,13 @@
         <v>92</v>
       </c>
       <c r="B90" t="n">
-        <v>0.0221440162728172</v>
+        <v>0.0310188974199624</v>
       </c>
       <c r="C90" t="n">
-        <v>-0.00690329712653182</v>
+        <v>-0.00251219817124627</v>
       </c>
       <c r="D90" t="n">
-        <v>0.0511913296721662</v>
+        <v>0.0645499930111711</v>
       </c>
     </row>
     <row r="91">
@@ -19444,13 +19504,13 @@
         <v>93</v>
       </c>
       <c r="B91" t="n">
-        <v>0.446092873790558</v>
+        <v>0.405541413614558</v>
       </c>
       <c r="C91" t="n">
-        <v>0.337247764236383</v>
+        <v>0.303813306701773</v>
       </c>
       <c r="D91" t="n">
-        <v>0.554937983344733</v>
+        <v>0.507269520527342</v>
       </c>
     </row>
     <row r="92">
@@ -19458,13 +19518,13 @@
         <v>94</v>
       </c>
       <c r="B92" t="n">
-        <v>0.91950163986063</v>
+        <v>0.284063653716275</v>
       </c>
       <c r="C92" t="n">
-        <v>0.830464728005555</v>
+        <v>0.225012315666204</v>
       </c>
       <c r="D92" t="n">
-        <v>1.0085385517157</v>
+        <v>0.343114991766346</v>
       </c>
     </row>
     <row r="93">
@@ -19472,13 +19532,13 @@
         <v>95</v>
       </c>
       <c r="B93" t="n">
-        <v>0.163741999453891</v>
+        <v>0.164393694412825</v>
       </c>
       <c r="C93" t="n">
-        <v>0.0884957217760782</v>
+        <v>0.0820840939038252</v>
       </c>
       <c r="D93" t="n">
-        <v>0.238988277131704</v>
+        <v>0.246703294921825</v>
       </c>
     </row>
     <row r="94">
@@ -19486,13 +19546,13 @@
         <v>96</v>
       </c>
       <c r="B94" t="n">
-        <v>2.42799473976481</v>
+        <v>2.62546585857513</v>
       </c>
       <c r="C94" t="n">
-        <v>2.24267862306003</v>
+        <v>2.40202935016251</v>
       </c>
       <c r="D94" t="n">
-        <v>2.61331085646958</v>
+        <v>2.84890236698775</v>
       </c>
     </row>
     <row r="95">
@@ -19500,13 +19560,13 @@
         <v>97</v>
       </c>
       <c r="B95" t="n">
-        <v>0.128003976163473</v>
+        <v>0.105198805103636</v>
       </c>
       <c r="C95" t="n">
-        <v>0.0664992881307357</v>
+        <v>0.0426827042506921</v>
       </c>
       <c r="D95" t="n">
-        <v>0.18950866419621</v>
+        <v>0.16771490595658</v>
       </c>
     </row>
     <row r="96">
@@ -19514,13 +19574,13 @@
         <v>98</v>
       </c>
       <c r="B96" t="n">
-        <v>0.86075710918189</v>
+        <v>0.768822383578062</v>
       </c>
       <c r="C96" t="n">
-        <v>0.777785846701127</v>
+        <v>0.681561127066144</v>
       </c>
       <c r="D96" t="n">
-        <v>0.943728371662653</v>
+        <v>0.85608364008998</v>
       </c>
     </row>
     <row r="97">
@@ -19528,13 +19588,13 @@
         <v>99</v>
       </c>
       <c r="B97" t="n">
-        <v>0.435083381518408</v>
+        <v>0.415070579026136</v>
       </c>
       <c r="C97" t="n">
-        <v>0.315490441548781</v>
+        <v>0.309954756268375</v>
       </c>
       <c r="D97" t="n">
-        <v>0.554676321488034</v>
+        <v>0.520186401783898</v>
       </c>
     </row>
     <row r="98">
@@ -19542,13 +19602,13 @@
         <v>100</v>
       </c>
       <c r="B98" t="n">
-        <v>0.854952332161006</v>
+        <v>0.874630247667122</v>
       </c>
       <c r="C98" t="n">
-        <v>0.778319920273542</v>
+        <v>0.809150617289291</v>
       </c>
       <c r="D98" t="n">
-        <v>0.93158474404847</v>
+        <v>0.940109878044953</v>
       </c>
     </row>
     <row r="99">
@@ -19556,13 +19616,13 @@
         <v>101</v>
       </c>
       <c r="B99" t="n">
-        <v>0.358582229371862</v>
+        <v>0.316129142502925</v>
       </c>
       <c r="C99" t="n">
-        <v>0.26672672630068</v>
+        <v>0.225659457757858</v>
       </c>
       <c r="D99" t="n">
-        <v>0.450437732443045</v>
+        <v>0.406598827247992</v>
       </c>
     </row>
     <row r="100">
@@ -19570,13 +19630,13 @@
         <v>102</v>
       </c>
       <c r="B100" t="n">
-        <v>0.447255472798358</v>
+        <v>0.290885294942974</v>
       </c>
       <c r="C100" t="n">
-        <v>0.377775455279337</v>
+        <v>0.213956905837085</v>
       </c>
       <c r="D100" t="n">
-        <v>0.516735490317379</v>
+        <v>0.367813684048863</v>
       </c>
     </row>
     <row r="101">
@@ -19584,13 +19644,13 @@
         <v>103</v>
       </c>
       <c r="B101" t="n">
-        <v>0.443868235383151</v>
+        <v>0.433786393686407</v>
       </c>
       <c r="C101" t="n">
-        <v>0.345728555928021</v>
+        <v>0.337702223411814</v>
       </c>
       <c r="D101" t="n">
-        <v>0.54200791483828</v>
+        <v>0.529870563961</v>
       </c>
     </row>
     <row r="102">
@@ -19598,13 +19658,13 @@
         <v>104</v>
       </c>
       <c r="B102" t="n">
-        <v>0.888696113525194</v>
+        <v>0.798022782537423</v>
       </c>
       <c r="C102" t="n">
-        <v>0.795698073040283</v>
+        <v>0.705452738838302</v>
       </c>
       <c r="D102" t="n">
-        <v>0.981694154010105</v>
+        <v>0.890592826236544</v>
       </c>
     </row>
     <row r="103">
@@ -19612,13 +19672,13 @@
         <v>105</v>
       </c>
       <c r="B103" t="n">
-        <v>0.403504439435606</v>
+        <v>0.231760576584661</v>
       </c>
       <c r="C103" t="n">
-        <v>0.335807580766064</v>
+        <v>0.154089173761537</v>
       </c>
       <c r="D103" t="n">
-        <v>0.471201298105147</v>
+        <v>0.309431979407784</v>
       </c>
     </row>
     <row r="104">
@@ -19626,13 +19686,13 @@
         <v>106</v>
       </c>
       <c r="B104" t="n">
-        <v>1.0109547746176</v>
+        <v>0.910522752732392</v>
       </c>
       <c r="C104" t="n">
-        <v>0.932608784931743</v>
+        <v>0.840698415177224</v>
       </c>
       <c r="D104" t="n">
-        <v>1.08930076430345</v>
+        <v>0.98034709028756</v>
       </c>
     </row>
     <row r="105">
@@ -19640,13 +19700,13 @@
         <v>107</v>
       </c>
       <c r="B105" t="n">
-        <v>1.00952002286703</v>
+        <v>0.916135784664995</v>
       </c>
       <c r="C105" t="n">
-        <v>0.936942137610627</v>
+        <v>0.850839490212475</v>
       </c>
       <c r="D105" t="n">
-        <v>1.08209790812343</v>
+        <v>0.981432079117515</v>
       </c>
     </row>
     <row r="106">
@@ -19654,13 +19714,13 @@
         <v>108</v>
       </c>
       <c r="B106" t="n">
-        <v>1.04963111736534</v>
+        <v>0.953418698059185</v>
       </c>
       <c r="C106" t="n">
-        <v>0.99594974082345</v>
+        <v>0.90685536547405</v>
       </c>
       <c r="D106" t="n">
-        <v>1.10331249390723</v>
+        <v>0.999982030644321</v>
       </c>
     </row>
     <row r="107">
@@ -19668,13 +19728,13 @@
         <v>109</v>
       </c>
       <c r="B107" t="n">
-        <v>1.0116763113516</v>
+        <v>0.912149866749317</v>
       </c>
       <c r="C107" t="n">
-        <v>0.938799080114574</v>
+        <v>0.846332749961849</v>
       </c>
       <c r="D107" t="n">
-        <v>1.08455354258862</v>
+        <v>0.977966983536786</v>
       </c>
     </row>
     <row r="108">
@@ -19682,13 +19742,13 @@
         <v>110</v>
       </c>
       <c r="B108" t="n">
-        <v>1.04274843862974</v>
+        <v>0.945093661119972</v>
       </c>
       <c r="C108" t="n">
-        <v>0.994470779337086</v>
+        <v>0.900014015247216</v>
       </c>
       <c r="D108" t="n">
-        <v>1.09102609792239</v>
+        <v>0.990173306992728</v>
       </c>
     </row>
     <row r="109">
@@ -19696,13 +19756,13 @@
         <v>111</v>
       </c>
       <c r="B109" t="n">
-        <v>0.642539562008412</v>
+        <v>0.71401096523909</v>
       </c>
       <c r="C109" t="n">
-        <v>0.543892591274137</v>
+        <v>0.623448860074392</v>
       </c>
       <c r="D109" t="n">
-        <v>0.741186532742688</v>
+        <v>0.804573070403789</v>
       </c>
     </row>
     <row r="110">
@@ -19710,13 +19770,13 @@
         <v>112</v>
       </c>
       <c r="B110" t="n">
-        <v>0.846502325667015</v>
+        <v>0.754924640992064</v>
       </c>
       <c r="C110" t="n">
-        <v>0.763070328005344</v>
+        <v>0.668824435200553</v>
       </c>
       <c r="D110" t="n">
-        <v>0.929934323328686</v>
+        <v>0.841024846783574</v>
       </c>
     </row>
     <row r="111">
@@ -19724,13 +19784,13 @@
         <v>113</v>
       </c>
       <c r="B111" t="n">
-        <v>41.9350821816129</v>
+        <v>12.0394392596462</v>
       </c>
       <c r="C111" t="n">
-        <v>41.1156069042746</v>
+        <v>11.6013270320793</v>
       </c>
       <c r="D111" t="n">
-        <v>42.7545574589512</v>
+        <v>12.4775514872131</v>
       </c>
     </row>
     <row r="112">
@@ -19738,13 +19798,13 @@
         <v>114</v>
       </c>
       <c r="B112" t="n">
-        <v>0.657109455353554</v>
+        <v>0.743647087588741</v>
       </c>
       <c r="C112" t="n">
-        <v>0.592164756686898</v>
+        <v>0.681237976049453</v>
       </c>
       <c r="D112" t="n">
-        <v>0.722054154020211</v>
+        <v>0.806056199128029</v>
       </c>
     </row>
     <row r="113">
@@ -19752,13 +19812,13 @@
         <v>115</v>
       </c>
       <c r="B113" t="n">
-        <v>115.039246186493</v>
+        <v>130.45828931561</v>
       </c>
       <c r="C113" t="n">
-        <v>113.340947868976</v>
+        <v>128.850565895399</v>
       </c>
       <c r="D113" t="n">
-        <v>116.737544504011</v>
+        <v>132.066012735821</v>
       </c>
     </row>
     <row r="114">
@@ -19766,13 +19826,13 @@
         <v>116</v>
       </c>
       <c r="B114" t="n">
-        <v>0.0781349542403718</v>
+        <v>0.0809881314940881</v>
       </c>
       <c r="C114" t="n">
-        <v>0.0421848739806527</v>
+        <v>0.0478904391135179</v>
       </c>
       <c r="D114" t="n">
-        <v>0.114085034500091</v>
+        <v>0.114085823874658</v>
       </c>
     </row>
     <row r="115">
@@ -19780,13 +19840,13 @@
         <v>117</v>
       </c>
       <c r="B115" t="n">
-        <v>-0.448925055863665</v>
+        <v>-0.0764932552642343</v>
       </c>
       <c r="C115" t="n">
-        <v>-0.550112389049205</v>
+        <v>-0.137431956070716</v>
       </c>
       <c r="D115" t="n">
-        <v>-0.347737722678125</v>
+        <v>-0.0155545544577526</v>
       </c>
     </row>
     <row r="116">
@@ -19794,13 +19854,13 @@
         <v>118</v>
       </c>
       <c r="B116" t="n">
-        <v>0.131323350551785</v>
+        <v>0.0470144347507634</v>
       </c>
       <c r="C116" t="n">
-        <v>0.110955157021801</v>
+        <v>0.0322870450486073</v>
       </c>
       <c r="D116" t="n">
-        <v>0.151691544081769</v>
+        <v>0.0617418244529194</v>
       </c>
     </row>
     <row r="117">
@@ -19808,13 +19868,13 @@
         <v>119</v>
       </c>
       <c r="B117" t="n">
-        <v>-1.18859680383135</v>
+        <v>-1.34321313466484</v>
       </c>
       <c r="C117" t="n">
-        <v>-1.3903509306225</v>
+        <v>-1.5546582438083</v>
       </c>
       <c r="D117" t="n">
-        <v>-0.986842677040209</v>
+        <v>-1.13176802552137</v>
       </c>
     </row>
     <row r="118">
@@ -19822,13 +19882,13 @@
         <v>120</v>
       </c>
       <c r="B118" t="n">
-        <v>0.362691002498397</v>
+        <v>0.353999033635294</v>
       </c>
       <c r="C118" t="n">
-        <v>0.303690553477169</v>
+        <v>0.294086377431979</v>
       </c>
       <c r="D118" t="n">
-        <v>0.421691451519625</v>
+        <v>0.41391168983861</v>
       </c>
     </row>
     <row r="119">
@@ -19836,13 +19896,13 @@
         <v>121</v>
       </c>
       <c r="B119" t="n">
-        <v>-0.234783735159696</v>
+        <v>0.0789697058021517</v>
       </c>
       <c r="C119" t="n">
-        <v>-0.354078842606645</v>
+        <v>-0.011857726722904</v>
       </c>
       <c r="D119" t="n">
-        <v>-0.115488627712747</v>
+        <v>0.169797138327207</v>
       </c>
     </row>
     <row r="120">
@@ -19850,13 +19910,13 @@
         <v>122</v>
       </c>
       <c r="B120" t="n">
-        <v>0.223571493935021</v>
+        <v>0.170730255276917</v>
       </c>
       <c r="C120" t="n">
-        <v>0.163112453590539</v>
+        <v>0.116726065260171</v>
       </c>
       <c r="D120" t="n">
-        <v>0.284030534279503</v>
+        <v>0.224734445293663</v>
       </c>
     </row>
     <row r="121">
@@ -19864,13 +19924,13 @@
         <v>123</v>
       </c>
       <c r="B121" t="n">
-        <v>-0.919544677944053</v>
+        <v>-1.05689160108503</v>
       </c>
       <c r="C121" t="n">
-        <v>-1.05522744073189</v>
+        <v>-1.19521024787917</v>
       </c>
       <c r="D121" t="n">
-        <v>-0.78386191515622</v>
+        <v>-0.91857295429089</v>
       </c>
     </row>
     <row r="122">
@@ -19878,13 +19938,13 @@
         <v>124</v>
       </c>
       <c r="B122" t="n">
-        <v>0.20287582128536</v>
+        <v>0.196402066059363</v>
       </c>
       <c r="C122" t="n">
-        <v>0.146428400281534</v>
+        <v>0.141808756619864</v>
       </c>
       <c r="D122" t="n">
-        <v>0.259323242289187</v>
+        <v>0.250995375498862</v>
       </c>
     </row>
     <row r="123">
@@ -19892,13 +19952,13 @@
         <v>125</v>
       </c>
       <c r="B123" t="n">
-        <v>-0.0188794019801049</v>
+        <v>0.108289733831564</v>
       </c>
       <c r="C123" t="n">
-        <v>-0.150524889563974</v>
+        <v>0.0225323789804169</v>
       </c>
       <c r="D123" t="n">
-        <v>0.112766085603764</v>
+        <v>0.19404708868271</v>
       </c>
     </row>
     <row r="124">
@@ -19906,13 +19966,13 @@
         <v>126</v>
       </c>
       <c r="B124" t="n">
-        <v>0.0713359934835099</v>
+        <v>0.0459348217881116</v>
       </c>
       <c r="C124" t="n">
-        <v>0.0220696563958631</v>
+        <v>0.0126822823339155</v>
       </c>
       <c r="D124" t="n">
-        <v>0.120602330571157</v>
+        <v>0.0791873612423077</v>
       </c>
     </row>
     <row r="125">
@@ -19920,13 +19980,13 @@
         <v>127</v>
       </c>
       <c r="B125" t="n">
-        <v>-0.327713366474847</v>
+        <v>-0.387605014062267</v>
       </c>
       <c r="C125" t="n">
-        <v>-0.488479910410341</v>
+        <v>-0.546440755782206</v>
       </c>
       <c r="D125" t="n">
-        <v>-0.166946822539353</v>
+        <v>-0.228769272342328</v>
       </c>
     </row>
     <row r="126">
@@ -19934,13 +19994,13 @@
         <v>128</v>
       </c>
       <c r="B126" t="n">
-        <v>0.0583428885682232</v>
+        <v>0.0620382899522168</v>
       </c>
       <c r="C126" t="n">
-        <v>0.024615233590669</v>
+        <v>0.0299182476285588</v>
       </c>
       <c r="D126" t="n">
-        <v>0.0920705435457775</v>
+        <v>0.0941583322758749</v>
       </c>
     </row>
     <row r="127">
@@ -19948,13 +20008,13 @@
         <v>129</v>
       </c>
       <c r="B127" t="n">
-        <v>0.0455933980141682</v>
+        <v>0.0523088796003589</v>
       </c>
       <c r="C127" t="n">
-        <v>0.0152513188779614</v>
+        <v>0.0205924025162087</v>
       </c>
       <c r="D127" t="n">
-        <v>0.0759354771503749</v>
+        <v>0.0840253566845091</v>
       </c>
     </row>
     <row r="128">
@@ -19962,13 +20022,13 @@
         <v>130</v>
       </c>
       <c r="B128" t="n">
-        <v>0.0179094781592245</v>
+        <v>0.0104944626057841</v>
       </c>
       <c r="C128" t="n">
-        <v>0.00392167150928747</v>
+        <v>0.00016264131380312</v>
       </c>
       <c r="D128" t="n">
-        <v>0.0318972848091615</v>
+        <v>0.020826283897765</v>
       </c>
     </row>
     <row r="129">
@@ -19976,13 +20036,13 @@
         <v>131</v>
       </c>
       <c r="B129" t="n">
-        <v>0.00488590824348274</v>
+        <v>0.00169497420596544</v>
       </c>
       <c r="C129" t="n">
-        <v>-0.0033152518117267</v>
+        <v>-0.00348759548005344</v>
       </c>
       <c r="D129" t="n">
-        <v>0.0130870682986922</v>
+        <v>0.00687754389198432</v>
       </c>
     </row>
     <row r="130">
@@ -19990,13 +20050,13 @@
         <v>132</v>
       </c>
       <c r="B130" t="n">
-        <v>0.161118474535884</v>
+        <v>0.0686363598386723</v>
       </c>
       <c r="C130" t="n">
-        <v>0.126236817639581</v>
+        <v>0.0437664730313107</v>
       </c>
       <c r="D130" t="n">
-        <v>0.196000131432188</v>
+        <v>0.0935062466460339</v>
       </c>
     </row>
     <row r="131">
@@ -20004,13 +20064,13 @@
         <v>133</v>
       </c>
       <c r="B131" t="n">
-        <v>0.0168827002117962</v>
+        <v>0.0127370096834642</v>
       </c>
       <c r="C131" t="n">
-        <v>-0.000636986853156309</v>
+        <v>-0.000529379178718257</v>
       </c>
       <c r="D131" t="n">
-        <v>0.0344023872767486</v>
+        <v>0.0260033985456467</v>
       </c>
     </row>
     <row r="132">
@@ -20018,13 +20078,13 @@
         <v>134</v>
       </c>
       <c r="B132" t="n">
-        <v>0.337701655303034</v>
+        <v>0.25582959417597</v>
       </c>
       <c r="C132" t="n">
-        <v>0.275778580042997</v>
+        <v>0.19892182630241</v>
       </c>
       <c r="D132" t="n">
-        <v>0.399624730563072</v>
+        <v>0.312737362049531</v>
       </c>
     </row>
     <row r="133">
@@ -20032,13 +20092,13 @@
         <v>135</v>
       </c>
       <c r="B133" t="n">
-        <v>0.567480248857927</v>
+        <v>0.364130464942625</v>
       </c>
       <c r="C133" t="n">
-        <v>0.500588103040546</v>
+        <v>0.299155119723205</v>
       </c>
       <c r="D133" t="n">
-        <v>0.634372394675307</v>
+        <v>0.429105810162046</v>
       </c>
     </row>
     <row r="134">
@@ -20046,13 +20106,13 @@
         <v>136</v>
       </c>
       <c r="B134" t="n">
-        <v>0.518088655150655</v>
+        <v>0.310108910356614</v>
       </c>
       <c r="C134" t="n">
-        <v>0.457460903518184</v>
+        <v>0.249033388201475</v>
       </c>
       <c r="D134" t="n">
-        <v>0.578716406783127</v>
+        <v>0.371184432511753</v>
       </c>
     </row>
     <row r="135">
@@ -20060,13 +20120,13 @@
         <v>137</v>
       </c>
       <c r="B135" t="n">
-        <v>0.890732000752689</v>
+        <v>0.768518294977852</v>
       </c>
       <c r="C135" t="n">
-        <v>0.771467381248775</v>
+        <v>0.64961120826264</v>
       </c>
       <c r="D135" t="n">
-        <v>1.0099966202566</v>
+        <v>0.887425381693065</v>
       </c>
     </row>
     <row r="136">
@@ -20074,13 +20134,13 @@
         <v>138</v>
       </c>
       <c r="B136" t="n">
-        <v>0.961914349368549</v>
+        <v>0.850085571987076</v>
       </c>
       <c r="C136" t="n">
-        <v>0.884330110411404</v>
+        <v>0.768740670071775</v>
       </c>
       <c r="D136" t="n">
-        <v>1.03949858832569</v>
+        <v>0.931430473902377</v>
       </c>
     </row>
     <row r="137">
@@ -20088,13 +20148,13 @@
         <v>139</v>
       </c>
       <c r="B137" t="n">
-        <v>0.668320654982937</v>
+        <v>0.764107940979698</v>
       </c>
       <c r="C137" t="n">
-        <v>0.576610930885743</v>
+        <v>0.673249175207474</v>
       </c>
       <c r="D137" t="n">
-        <v>0.76003037908013</v>
+        <v>0.854966706751921</v>
       </c>
     </row>
     <row r="138">
@@ -20102,13 +20162,13 @@
         <v>140</v>
       </c>
       <c r="B138" t="n">
-        <v>0.550139827085977</v>
+        <v>0.375710936940165</v>
       </c>
       <c r="C138" t="n">
-        <v>0.427005677694393</v>
+        <v>0.258286522068764</v>
       </c>
       <c r="D138" t="n">
-        <v>0.673273976477561</v>
+        <v>0.493135351811565</v>
       </c>
     </row>
     <row r="139">
@@ -20116,13 +20176,13 @@
         <v>141</v>
       </c>
       <c r="B139" t="n">
-        <v>0.468634344521066</v>
+        <v>0.478482682960083</v>
       </c>
       <c r="C139" t="n">
-        <v>0.362003399652887</v>
+        <v>0.361557295901589</v>
       </c>
       <c r="D139" t="n">
-        <v>0.575265289389244</v>
+        <v>0.595408070018578</v>
       </c>
     </row>
     <row r="140">
@@ -20130,13 +20190,13 @@
         <v>142</v>
       </c>
       <c r="B140" t="n">
-        <v>0.556144509611618</v>
+        <v>0.583486623961976</v>
       </c>
       <c r="C140" t="n">
-        <v>0.445862905027711</v>
+        <v>0.460711641252942</v>
       </c>
       <c r="D140" t="n">
-        <v>0.666426114195526</v>
+        <v>0.70626160667101</v>
       </c>
     </row>
     <row r="141">
@@ -20144,13 +20204,13 @@
         <v>143</v>
       </c>
       <c r="B141" t="n">
-        <v>0.0709609814415024</v>
+        <v>0.0197451738838175</v>
       </c>
       <c r="C141" t="n">
-        <v>0.0287105628547199</v>
+        <v>-0.00254183009382559</v>
       </c>
       <c r="D141" t="n">
-        <v>0.113211400028285</v>
+        <v>0.0420321778614605</v>
       </c>
     </row>
     <row r="142">
@@ -20158,13 +20218,13 @@
         <v>144</v>
       </c>
       <c r="B142" t="n">
-        <v>0.101042196012178</v>
+        <v>0.0312534147370023</v>
       </c>
       <c r="C142" t="n">
-        <v>-0.258319233135036</v>
+        <v>-0.159282740429399</v>
       </c>
       <c r="D142" t="n">
-        <v>0.460403625159392</v>
+        <v>0.221789569903403</v>
       </c>
     </row>
     <row r="143">
@@ -20172,13 +20232,13 @@
         <v>145</v>
       </c>
       <c r="B143" t="n">
-        <v>0.339003258245068</v>
+        <v>0.307550653808227</v>
       </c>
       <c r="C143" t="n">
-        <v>0.227714488236667</v>
+        <v>0.209922591517668</v>
       </c>
       <c r="D143" t="n">
-        <v>0.450292028253469</v>
+        <v>0.405178716098785</v>
       </c>
     </row>
     <row r="144">
@@ -20186,13 +20246,13 @@
         <v>146</v>
       </c>
       <c r="B144" t="n">
-        <v>0.553754581025069</v>
+        <v>0.55853025813059</v>
       </c>
       <c r="C144" t="n">
-        <v>0.302082264705651</v>
+        <v>0.320884912740402</v>
       </c>
       <c r="D144" t="n">
-        <v>0.805426897344486</v>
+        <v>0.796175603520779</v>
       </c>
     </row>
     <row r="145">
@@ -20200,13 +20260,13 @@
         <v>147</v>
       </c>
       <c r="B145" t="n">
-        <v>0.359481348336669</v>
+        <v>0.248896052498074</v>
       </c>
       <c r="C145" t="n">
-        <v>0.211214396775987</v>
+        <v>0.134275456783785</v>
       </c>
       <c r="D145" t="n">
-        <v>0.507748299897351</v>
+        <v>0.363516648212363</v>
       </c>
     </row>
     <row r="146">
@@ -20214,13 +20274,13 @@
         <v>148</v>
       </c>
       <c r="B146" t="n">
-        <v>0.445554275347275</v>
+        <v>0.46289706697888</v>
       </c>
       <c r="C146" t="n">
-        <v>0.325098437622527</v>
+        <v>0.345814317353542</v>
       </c>
       <c r="D146" t="n">
-        <v>0.566010113072024</v>
+        <v>0.579979816604218</v>
       </c>
     </row>
     <row r="147">
@@ -20228,13 +20288,13 @@
         <v>149</v>
       </c>
       <c r="B147" t="n">
-        <v>0.573577458691568</v>
+        <v>0.673533577348811</v>
       </c>
       <c r="C147" t="n">
-        <v>0.466035878983315</v>
+        <v>0.567736786912197</v>
       </c>
       <c r="D147" t="n">
-        <v>0.681119038399821</v>
+        <v>0.779330367785425</v>
       </c>
     </row>
     <row r="148">
@@ -20242,13 +20302,13 @@
         <v>150</v>
       </c>
       <c r="B148" t="n">
-        <v>0.503691939985294</v>
+        <v>0.603609716994892</v>
       </c>
       <c r="C148" t="n">
-        <v>0.407352993305617</v>
+        <v>0.510592202319559</v>
       </c>
       <c r="D148" t="n">
-        <v>0.600030886664971</v>
+        <v>0.696627231670225</v>
       </c>
     </row>
     <row r="149">
@@ -20270,13 +20330,13 @@
         <v>152</v>
       </c>
       <c r="B150" t="n">
-        <v>0.0286543811942194</v>
+        <v>0.021496982161372</v>
       </c>
       <c r="C150" t="n">
-        <v>-0.0928922394163135</v>
+        <v>-0.10641143390365</v>
       </c>
       <c r="D150" t="n">
-        <v>0.150201001804752</v>
+        <v>0.149405398226394</v>
       </c>
     </row>
     <row r="151">
@@ -20284,13 +20344,13 @@
         <v>153</v>
       </c>
       <c r="B151" t="n">
-        <v>0.227051672739656</v>
+        <v>0.0631780263996474</v>
       </c>
       <c r="C151" t="n">
-        <v>0.161552908247081</v>
+        <v>0.0286275704845576</v>
       </c>
       <c r="D151" t="n">
-        <v>0.292550437232231</v>
+        <v>0.0977284823147373</v>
       </c>
     </row>
     <row r="152">
@@ -20298,13 +20358,13 @@
         <v>154</v>
       </c>
       <c r="B152" t="n">
-        <v>0.0172324815125784</v>
+        <v>0.0226732603691385</v>
       </c>
       <c r="C152" t="n">
-        <v>-0.00806308280859976</v>
+        <v>-0.00364117552859259</v>
       </c>
       <c r="D152" t="n">
-        <v>0.0425280458337566</v>
+        <v>0.0489876962668695</v>
       </c>
     </row>
     <row r="153">
@@ -20312,13 +20372,13 @@
         <v>155</v>
       </c>
       <c r="B153" t="n">
-        <v>0.033793828049338</v>
+        <v>0.0373301289226116</v>
       </c>
       <c r="C153" t="n">
-        <v>-0.0361451536879419</v>
+        <v>-0.0438294667947486</v>
       </c>
       <c r="D153" t="n">
-        <v>0.103732809786618</v>
+        <v>0.118489724639972</v>
       </c>
     </row>
     <row r="154">
@@ -20326,13 +20386,13 @@
         <v>156</v>
       </c>
       <c r="B154" t="n">
-        <v>0.0768399094113785</v>
+        <v>0.0475883747697244</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0246241990413537</v>
+        <v>0.00552979012134937</v>
       </c>
       <c r="D154" t="n">
-        <v>0.129055619781403</v>
+        <v>0.0896469594180995</v>
       </c>
     </row>
     <row r="155">
@@ -20340,13 +20400,13 @@
         <v>157</v>
       </c>
       <c r="B155" t="n">
-        <v>0.00302299343339875</v>
+        <v>0.00229885979903799</v>
       </c>
       <c r="C155" t="n">
-        <v>-0.0159452420376008</v>
+        <v>-0.00919382989361055</v>
       </c>
       <c r="D155" t="n">
-        <v>0.0219912289043983</v>
+        <v>0.0137915494916865</v>
       </c>
     </row>
     <row r="156">
@@ -20354,13 +20414,13 @@
         <v>158</v>
       </c>
       <c r="B156" t="n">
-        <v>0.13389043757229</v>
+        <v>0.193639969893748</v>
       </c>
       <c r="C156" t="n">
-        <v>0.0397349240728711</v>
+        <v>0.0756757764260088</v>
       </c>
       <c r="D156" t="n">
-        <v>0.22804595107171</v>
+        <v>0.311604163361488</v>
       </c>
     </row>
     <row r="157">
@@ -20368,13 +20428,13 @@
         <v>159</v>
       </c>
       <c r="B157" t="n">
-        <v>0.111435186285509</v>
+        <v>0.0775734080467241</v>
       </c>
       <c r="C157" t="n">
-        <v>0.0257674723413771</v>
+        <v>0.00607726546881429</v>
       </c>
       <c r="D157" t="n">
-        <v>0.19710290022964</v>
+        <v>0.149069550624634</v>
       </c>
     </row>
     <row r="158">
@@ -20382,13 +20442,13 @@
         <v>160</v>
       </c>
       <c r="B158" t="n">
-        <v>0.503849465600766</v>
+        <v>0.515993925639619</v>
       </c>
       <c r="C158" t="n">
-        <v>0.333230594587527</v>
+        <v>0.352204233390567</v>
       </c>
       <c r="D158" t="n">
-        <v>0.674468336614004</v>
+        <v>0.679783617888672</v>
       </c>
     </row>
     <row r="159">
@@ -20396,13 +20456,13 @@
         <v>161</v>
       </c>
       <c r="B159" t="n">
-        <v>0.470480166327991</v>
+        <v>0.507038332043896</v>
       </c>
       <c r="C159" t="n">
-        <v>0.370253809622803</v>
+        <v>0.413307593781881</v>
       </c>
       <c r="D159" t="n">
-        <v>0.570706523033178</v>
+        <v>0.600769070305911</v>
       </c>
     </row>
     <row r="160">
@@ -20410,13 +20470,13 @@
         <v>162</v>
       </c>
       <c r="B160" t="n">
-        <v>0.214884832695354</v>
+        <v>0.202077579482724</v>
       </c>
       <c r="C160" t="n">
-        <v>0.11677751614684</v>
+        <v>0.101991229452378</v>
       </c>
       <c r="D160" t="n">
-        <v>0.312992149243869</v>
+        <v>0.302163929513071</v>
       </c>
     </row>
     <row r="161">
@@ -20424,13 +20484,13 @@
         <v>163</v>
       </c>
       <c r="B161" t="n">
-        <v>0.508902491545028</v>
+        <v>0.356908586861055</v>
       </c>
       <c r="C161" t="n">
-        <v>0.388916536648934</v>
+        <v>0.236873418203453</v>
       </c>
       <c r="D161" t="n">
-        <v>0.628888446441122</v>
+        <v>0.476943755518656</v>
       </c>
     </row>
     <row r="162">
@@ -20438,13 +20498,13 @@
         <v>164</v>
       </c>
       <c r="B162" t="n">
-        <v>0.0501030510509528</v>
+        <v>0.0405139474068038</v>
       </c>
       <c r="C162" t="n">
-        <v>0.0197190885147418</v>
+        <v>0.0141041135245401</v>
       </c>
       <c r="D162" t="n">
-        <v>0.0804870135871637</v>
+        <v>0.0669237812890675</v>
       </c>
     </row>
     <row r="163">
@@ -20452,13 +20512,13 @@
         <v>165</v>
       </c>
       <c r="B163" t="n">
-        <v>0.51444844865196</v>
+        <v>0.393049717248552</v>
       </c>
       <c r="C163" t="n">
-        <v>0.410911373287185</v>
+        <v>0.308082757691444</v>
       </c>
       <c r="D163" t="n">
-        <v>0.617985524016735</v>
+        <v>0.47801667680566</v>
       </c>
     </row>
     <row r="164">
@@ -20466,13 +20526,13 @@
         <v>166</v>
       </c>
       <c r="B164" t="n">
-        <v>0.370786310666406</v>
+        <v>0.234216917367138</v>
       </c>
       <c r="C164" t="n">
-        <v>0.310708189815506</v>
+        <v>0.17864957912015</v>
       </c>
       <c r="D164" t="n">
-        <v>0.430864431517306</v>
+        <v>0.289784255614125</v>
       </c>
     </row>
     <row r="165">
@@ -20480,13 +20540,13 @@
         <v>167</v>
       </c>
       <c r="B165" t="n">
-        <v>0.757880329956117</v>
+        <v>0.73038414023584</v>
       </c>
       <c r="C165" t="n">
-        <v>0.614258547522114</v>
+        <v>0.589818174869888</v>
       </c>
       <c r="D165" t="n">
-        <v>0.90150211239012</v>
+        <v>0.870950105601793</v>
       </c>
     </row>
     <row r="166">
@@ -20494,13 +20554,13 @@
         <v>168</v>
       </c>
       <c r="B166" t="n">
-        <v>0.807618423299827</v>
+        <v>0.751389528050022</v>
       </c>
       <c r="C166" t="n">
-        <v>0.735200118164408</v>
+        <v>0.682964780261916</v>
       </c>
       <c r="D166" t="n">
-        <v>0.880036728435246</v>
+        <v>0.819814275838127</v>
       </c>
     </row>
     <row r="167">
@@ -20508,13 +20568,13 @@
         <v>169</v>
       </c>
       <c r="B167" t="n">
-        <v>1.37525418586314</v>
+        <v>0.50151549060983</v>
       </c>
       <c r="C167" t="n">
-        <v>1.24996438668664</v>
+        <v>0.417708759286158</v>
       </c>
       <c r="D167" t="n">
-        <v>1.50054398503965</v>
+        <v>0.585322221933502</v>
       </c>
     </row>
     <row r="168">
@@ -20522,13 +20582,13 @@
         <v>170</v>
       </c>
       <c r="B168" t="n">
-        <v>0.576725879629014</v>
+        <v>0.610227650269672</v>
       </c>
       <c r="C168" t="n">
-        <v>0.462245295922293</v>
+        <v>0.506153902378243</v>
       </c>
       <c r="D168" t="n">
-        <v>0.691206463335735</v>
+        <v>0.714301398161101</v>
       </c>
     </row>
     <row r="169">
@@ -20536,13 +20596,13 @@
         <v>171</v>
       </c>
       <c r="B169" t="n">
-        <v>3.03719831350535</v>
+        <v>3.43182216210132</v>
       </c>
       <c r="C169" t="n">
-        <v>2.79927267251647</v>
+        <v>3.17694717196527</v>
       </c>
       <c r="D169" t="n">
-        <v>3.27512395449424</v>
+        <v>3.68669715223736</v>
       </c>
     </row>
     <row r="170">
@@ -20550,13 +20610,13 @@
         <v>172</v>
       </c>
       <c r="B170" t="n">
-        <v>0.363430467045807</v>
+        <v>0.176056054384669</v>
       </c>
       <c r="C170" t="n">
-        <v>0.321853883201073</v>
+        <v>0.127059652985841</v>
       </c>
       <c r="D170" t="n">
-        <v>0.405007050890541</v>
+        <v>0.225052455783497</v>
       </c>
     </row>
     <row r="171">
@@ -20564,13 +20624,13 @@
         <v>173</v>
       </c>
       <c r="B171" t="n">
-        <v>0.161165033385251</v>
+        <v>0.202285942251168</v>
       </c>
       <c r="C171" t="n">
-        <v>0.107940810241111</v>
+        <v>0.14594061844526</v>
       </c>
       <c r="D171" t="n">
-        <v>0.214389256529391</v>
+        <v>0.258631266057075</v>
       </c>
     </row>
     <row r="172">
@@ -20578,13 +20638,13 @@
         <v>174</v>
       </c>
       <c r="B172" t="n">
-        <v>0.399586518678662</v>
+        <v>0.1521333233719</v>
       </c>
       <c r="C172" t="n">
-        <v>0.18052965873673</v>
+        <v>-0.0254256625569833</v>
       </c>
       <c r="D172" t="n">
-        <v>0.618643378620593</v>
+        <v>0.329692309300784</v>
       </c>
     </row>
     <row r="173">
@@ -20592,13 +20652,13 @@
         <v>175</v>
       </c>
       <c r="B173" t="n">
-        <v>0.21730430914671</v>
+        <v>0.180050199598583</v>
       </c>
       <c r="C173" t="n">
-        <v>0.0197942261675702</v>
+        <v>-0.00735921088251415</v>
       </c>
       <c r="D173" t="n">
-        <v>0.41481439212585</v>
+        <v>0.367459610079681</v>
       </c>
     </row>
     <row r="174">
@@ -20606,13 +20666,13 @@
         <v>176</v>
       </c>
       <c r="B174" t="n">
-        <v>0.328358422808943</v>
+        <v>0.257530847414097</v>
       </c>
       <c r="C174" t="n">
-        <v>0.136540894811834</v>
+        <v>0.06220508809914</v>
       </c>
       <c r="D174" t="n">
-        <v>0.520175950806052</v>
+        <v>0.452856606729053</v>
       </c>
     </row>
     <row r="175">
@@ -20620,13 +20680,13 @@
         <v>177</v>
       </c>
       <c r="B175" t="n">
-        <v>0.0106500178456925</v>
+        <v>0.0142110941299943</v>
       </c>
       <c r="C175" t="n">
-        <v>-0.0295612363626747</v>
+        <v>-0.0322389583993539</v>
       </c>
       <c r="D175" t="n">
-        <v>0.0508612720540598</v>
+        <v>0.0606611466593426</v>
       </c>
     </row>
     <row r="176">
@@ -20634,13 +20694,13 @@
         <v>178</v>
       </c>
       <c r="B176" t="n">
-        <v>0.356849726383092</v>
+        <v>0.123609955831481</v>
       </c>
       <c r="C176" t="n">
-        <v>0.14350212251516</v>
+        <v>-0.0486837361581639</v>
       </c>
       <c r="D176" t="n">
-        <v>0.570197330251025</v>
+        <v>0.295903647821126</v>
       </c>
     </row>
     <row r="177">
@@ -20648,13 +20708,13 @@
         <v>179</v>
       </c>
       <c r="B177" t="n">
-        <v>0.0816989745629851</v>
+        <v>0.0632104522120723</v>
       </c>
       <c r="C177" t="n">
-        <v>-0.160817391722465</v>
+        <v>-0.134740047050003</v>
       </c>
       <c r="D177" t="n">
-        <v>0.324215340848435</v>
+        <v>0.261160951474147</v>
       </c>
     </row>
     <row r="178">
@@ -20662,13 +20722,13 @@
         <v>180</v>
       </c>
       <c r="B178" t="n">
-        <v>0.325087586863525</v>
+        <v>0.106161256075946</v>
       </c>
       <c r="C178" t="n">
-        <v>0.132378767797212</v>
+        <v>-0.0503171063954752</v>
       </c>
       <c r="D178" t="n">
-        <v>0.517796405929838</v>
+        <v>0.262639618547367</v>
       </c>
     </row>
     <row r="179">
@@ -20676,13 +20736,13 @@
         <v>181</v>
       </c>
       <c r="B179" t="n">
-        <v>0.360767845027801</v>
+        <v>0.125781574308064</v>
       </c>
       <c r="C179" t="n">
-        <v>0.111880076084629</v>
+        <v>-0.0734870988671181</v>
       </c>
       <c r="D179" t="n">
-        <v>0.609655613970974</v>
+        <v>0.325050247483245</v>
       </c>
     </row>
     <row r="180">
@@ -20690,13 +20750,13 @@
         <v>182</v>
       </c>
       <c r="B180" t="n">
-        <v>0.541222029459199</v>
+        <v>0.286874904401949</v>
       </c>
       <c r="C180" t="n">
-        <v>0.322822129971262</v>
+        <v>0.0790761749365261</v>
       </c>
       <c r="D180" t="n">
-        <v>0.759621928947135</v>
+        <v>0.494673633867373</v>
       </c>
     </row>
     <row r="181">
@@ -20704,13 +20764,13 @@
         <v>183</v>
       </c>
       <c r="B181" t="n">
-        <v>0.620446473967276</v>
+        <v>0.337829399095703</v>
       </c>
       <c r="C181" t="n">
-        <v>0.422422503472694</v>
+        <v>0.142759986231943</v>
       </c>
       <c r="D181" t="n">
-        <v>0.818470444461859</v>
+        <v>0.532898811959462</v>
       </c>
     </row>
     <row r="182">
@@ -20718,13 +20778,13 @@
         <v>184</v>
       </c>
       <c r="B182" t="n">
-        <v>0.623548251480067</v>
+        <v>0.344043807449989</v>
       </c>
       <c r="C182" t="n">
-        <v>0.423483409950129</v>
+        <v>0.143871490966988</v>
       </c>
       <c r="D182" t="n">
-        <v>0.823613093010006</v>
+        <v>0.54421612393299</v>
       </c>
     </row>
     <row r="183">
@@ -20732,13 +20792,13 @@
         <v>185</v>
       </c>
       <c r="B183" t="n">
-        <v>0.540190011116486</v>
+        <v>0.285356662137782</v>
       </c>
       <c r="C183" t="n">
-        <v>0.313195962135489</v>
+        <v>0.0755241075950199</v>
       </c>
       <c r="D183" t="n">
-        <v>0.767184060097483</v>
+        <v>0.495189216680543</v>
       </c>
     </row>
     <row r="184">
@@ -20746,13 +20806,13 @@
         <v>186</v>
       </c>
       <c r="B184" t="n">
-        <v>0.542412097640994</v>
+        <v>0.287818148806372</v>
       </c>
       <c r="C184" t="n">
-        <v>0.30375354453185</v>
+        <v>0.0635046679768078</v>
       </c>
       <c r="D184" t="n">
-        <v>0.781070650750137</v>
+        <v>0.512131629635936</v>
       </c>
     </row>
     <row r="185">
@@ -20760,13 +20820,13 @@
         <v>187</v>
       </c>
       <c r="B185" t="n">
-        <v>0.400452524833125</v>
+        <v>0.157719192695865</v>
       </c>
       <c r="C185" t="n">
-        <v>0.204636906892705</v>
+        <v>-0.00182146426991828</v>
       </c>
       <c r="D185" t="n">
-        <v>0.596268142773544</v>
+        <v>0.317259849661648</v>
       </c>
     </row>
     <row r="186">
@@ -20774,13 +20834,13 @@
         <v>188</v>
       </c>
       <c r="B186" t="n">
-        <v>1.757881475353</v>
+        <v>0.506785425102177</v>
       </c>
       <c r="C186" t="n">
-        <v>1.5775391636352</v>
+        <v>0.365084018969666</v>
       </c>
       <c r="D186" t="n">
-        <v>1.93822378707081</v>
+        <v>0.648486831234688</v>
       </c>
     </row>
     <row r="187">
@@ -20788,13 +20848,13 @@
         <v>189</v>
       </c>
       <c r="B187" t="n">
-        <v>0.78967657192939</v>
+        <v>0.680171157687637</v>
       </c>
       <c r="C187" t="n">
-        <v>0.609618962567174</v>
+        <v>0.502018741276645</v>
       </c>
       <c r="D187" t="n">
-        <v>0.969734181291606</v>
+        <v>0.858323574098629</v>
       </c>
     </row>
     <row r="188">
@@ -20802,13 +20862,13 @@
         <v>190</v>
       </c>
       <c r="B188" t="n">
-        <v>3.54468438547923</v>
+        <v>3.85047992829353</v>
       </c>
       <c r="C188" t="n">
-        <v>2.91715599925326</v>
+        <v>3.1973908027377</v>
       </c>
       <c r="D188" t="n">
-        <v>4.1722127717052</v>
+        <v>4.50356905384937</v>
       </c>
     </row>
     <row r="189">
@@ -20816,13 +20876,13 @@
         <v>191</v>
       </c>
       <c r="B189" t="n">
-        <v>0.507716637912432</v>
+        <v>0.35705786773542</v>
       </c>
       <c r="C189" t="n">
-        <v>0.345766434690643</v>
+        <v>0.185910103026059</v>
       </c>
       <c r="D189" t="n">
-        <v>0.669666841134221</v>
+        <v>0.528205632444781</v>
       </c>
     </row>
     <row r="190">
@@ -20830,13 +20890,13 @@
         <v>192</v>
       </c>
       <c r="B190" t="n">
-        <v>0.973864599566181</v>
+        <v>0.848555844401886</v>
       </c>
       <c r="C190" t="n">
-        <v>0.904049277714933</v>
+        <v>0.777154436456852</v>
       </c>
       <c r="D190" t="n">
-        <v>1.04367992141743</v>
+        <v>0.91995725234692</v>
       </c>
     </row>
     <row r="191">
@@ -20844,13 +20904,13 @@
         <v>193</v>
       </c>
       <c r="B191" t="n">
-        <v>1.01672069507183</v>
+        <v>0.926618939511642</v>
       </c>
       <c r="C191" t="n">
-        <v>0.941506761431922</v>
+        <v>0.860227009030602</v>
       </c>
       <c r="D191" t="n">
-        <v>1.09193462871173</v>
+        <v>0.993010869992681</v>
       </c>
     </row>
     <row r="192">
@@ -20858,13 +20918,13 @@
         <v>194</v>
       </c>
       <c r="B192" t="n">
-        <v>0.991536496026393</v>
+        <v>0.895543777724227</v>
       </c>
       <c r="C192" t="n">
-        <v>0.911589129611238</v>
+        <v>0.823376091200327</v>
       </c>
       <c r="D192" t="n">
-        <v>1.07148386244155</v>
+        <v>0.967711464248127</v>
       </c>
     </row>
     <row r="193">
@@ -20872,13 +20932,13 @@
         <v>195</v>
       </c>
       <c r="B193" t="n">
-        <v>0.868688914194433</v>
+        <v>0.76391736737554</v>
       </c>
       <c r="C193" t="n">
-        <v>0.779131797669441</v>
+        <v>0.679016099649781</v>
       </c>
       <c r="D193" t="n">
-        <v>0.958246030719425</v>
+        <v>0.848818635101299</v>
       </c>
     </row>
     <row r="194">
@@ -20886,13 +20946,13 @@
         <v>196</v>
       </c>
       <c r="B194" t="n">
-        <v>0.821674133563504</v>
+        <v>0.83049053444542</v>
       </c>
       <c r="C194" t="n">
-        <v>0.726197772806056</v>
+        <v>0.749732029834052</v>
       </c>
       <c r="D194" t="n">
-        <v>0.917150494320951</v>
+        <v>0.911249039056789</v>
       </c>
     </row>
     <row r="195">
@@ -20900,13 +20960,13 @@
         <v>197</v>
       </c>
       <c r="B195" t="n">
-        <v>0.603308417746698</v>
+        <v>0.678682746850655</v>
       </c>
       <c r="C195" t="n">
-        <v>0.514096444004713</v>
+        <v>0.592051795586104</v>
       </c>
       <c r="D195" t="n">
-        <v>0.692520391488682</v>
+        <v>0.765313698115205</v>
       </c>
     </row>
     <row r="196">
@@ -20914,13 +20974,13 @@
         <v>198</v>
       </c>
       <c r="B196" t="n">
-        <v>0.408475315572182</v>
+        <v>0.353091412504796</v>
       </c>
       <c r="C196" t="n">
-        <v>0.303281932735781</v>
+        <v>0.25324182351801</v>
       </c>
       <c r="D196" t="n">
-        <v>0.513668698408583</v>
+        <v>0.452941001491582</v>
       </c>
     </row>
     <row r="197">
@@ -20928,13 +20988,13 @@
         <v>199</v>
       </c>
       <c r="B197" t="n">
-        <v>0.321931564172394</v>
+        <v>0.131355317106502</v>
       </c>
       <c r="C197" t="n">
-        <v>0.269162243756495</v>
+        <v>0.084806078001752</v>
       </c>
       <c r="D197" t="n">
-        <v>0.374700884588294</v>
+        <v>0.177904556211253</v>
       </c>
     </row>
     <row r="198">
@@ -20942,13 +21002,13 @@
         <v>200</v>
       </c>
       <c r="B198" t="n">
-        <v>3.89714905745086</v>
+        <v>1.32062829567542</v>
       </c>
       <c r="C198" t="n">
-        <v>3.67897855733586</v>
+        <v>1.17658544936894</v>
       </c>
       <c r="D198" t="n">
-        <v>4.11531955756585</v>
+        <v>1.46467114198189</v>
       </c>
     </row>
     <row r="199">
@@ -20956,13 +21016,13 @@
         <v>201</v>
       </c>
       <c r="B199" t="n">
-        <v>0.528249829366544</v>
+        <v>0.457593218483558</v>
       </c>
       <c r="C199" t="n">
-        <v>0.407135057703876</v>
+        <v>0.358073291797143</v>
       </c>
       <c r="D199" t="n">
-        <v>0.649364601029213</v>
+        <v>0.557113145169973</v>
       </c>
     </row>
     <row r="200">
@@ -20970,13 +21030,13 @@
         <v>202</v>
       </c>
       <c r="B200" t="n">
-        <v>9.87341308800023</v>
+        <v>11.0734681359648</v>
       </c>
       <c r="C200" t="n">
-        <v>9.42772458235302</v>
+        <v>10.6048491280233</v>
       </c>
       <c r="D200" t="n">
-        <v>10.3191015936474</v>
+        <v>11.5420871439064</v>
       </c>
     </row>
     <row r="201">
@@ -20984,13 +21044,13 @@
         <v>203</v>
       </c>
       <c r="B201" t="n">
-        <v>0.138243239346019</v>
+        <v>0.167132674081989</v>
       </c>
       <c r="C201" t="n">
-        <v>0.0211019378173042</v>
+        <v>0.0422101042227582</v>
       </c>
       <c r="D201" t="n">
-        <v>0.255384540874734</v>
+        <v>0.29205524394122</v>
       </c>
     </row>
     <row r="202">
@@ -20998,13 +21058,13 @@
         <v>204</v>
       </c>
       <c r="B202" t="n">
-        <v>0.0791451728168684</v>
+        <v>0.0948445009718342</v>
       </c>
       <c r="C202" t="n">
-        <v>-0.00273352528559136</v>
+        <v>0.00696929935330171</v>
       </c>
       <c r="D202" t="n">
-        <v>0.161023870919328</v>
+        <v>0.182719702590367</v>
       </c>
     </row>
     <row r="203">
@@ -21012,13 +21072,13 @@
         <v>205</v>
       </c>
       <c r="B203" t="n">
-        <v>3.24317510950301</v>
+        <v>0.958087363618204</v>
       </c>
       <c r="C203" t="n">
-        <v>2.94986552817684</v>
+        <v>0.785216807160696</v>
       </c>
       <c r="D203" t="n">
-        <v>3.53648469082918</v>
+        <v>1.13095792007571</v>
       </c>
     </row>
     <row r="204">
@@ -21026,13 +21086,13 @@
         <v>206</v>
       </c>
       <c r="B204" t="n">
-        <v>0.137609741191438</v>
+        <v>0.0382904550181842</v>
       </c>
       <c r="C204" t="n">
-        <v>0.0585229023794955</v>
+        <v>-0.00342768056810739</v>
       </c>
       <c r="D204" t="n">
-        <v>0.21669658000338</v>
+        <v>0.0800085906044759</v>
       </c>
     </row>
     <row r="205">
@@ -21040,13 +21100,13 @@
         <v>207</v>
       </c>
       <c r="B205" t="n">
-        <v>8.69473638158897</v>
+        <v>9.82650506701376</v>
       </c>
       <c r="C205" t="n">
-        <v>8.2085009848831</v>
+        <v>9.33447003142244</v>
       </c>
       <c r="D205" t="n">
-        <v>9.18097177829484</v>
+        <v>10.3185401026051</v>
       </c>
     </row>
     <row r="206">
@@ -21054,13 +21114,13 @@
         <v>208</v>
       </c>
       <c r="B206" t="n">
-        <v>0.500374252909768</v>
+        <v>0.487633348500078</v>
       </c>
       <c r="C206" t="n">
-        <v>0.337802884298155</v>
+        <v>0.33447170172576</v>
       </c>
       <c r="D206" t="n">
-        <v>0.662945621521381</v>
+        <v>0.640794995274395</v>
       </c>
     </row>
     <row r="207">
@@ -21068,13 +21128,13 @@
         <v>209</v>
       </c>
       <c r="B207" t="n">
-        <v>0.22876290693548</v>
+        <v>0.238771353481323</v>
       </c>
       <c r="C207" t="n">
-        <v>0.132890519643668</v>
+        <v>0.141662984408442</v>
       </c>
       <c r="D207" t="n">
-        <v>0.324635294227293</v>
+        <v>0.335879722554204</v>
       </c>
     </row>
     <row r="208">
@@ -21082,13 +21142,13 @@
         <v>210</v>
       </c>
       <c r="B208" t="n">
-        <v>0.347113386110222</v>
+        <v>0.260941957477099</v>
       </c>
       <c r="C208" t="n">
-        <v>0.231225282934741</v>
+        <v>0.143345410168978</v>
       </c>
       <c r="D208" t="n">
-        <v>0.463001489285703</v>
+        <v>0.378538504785221</v>
       </c>
     </row>
     <row r="209">
@@ -21096,13 +21156,13 @@
         <v>211</v>
       </c>
       <c r="B209" t="n">
-        <v>0.00641697907707601</v>
+        <v>0.00774103700897005</v>
       </c>
       <c r="C209" t="n">
-        <v>-0.0168537181325143</v>
+        <v>-0.0177492457754306</v>
       </c>
       <c r="D209" t="n">
-        <v>0.0296876762866663</v>
+        <v>0.0332313197933707</v>
       </c>
     </row>
     <row r="210">
@@ -21110,13 +21170,13 @@
         <v>212</v>
       </c>
       <c r="B210" t="n">
-        <v>0.862178043150782</v>
+        <v>0.854687484740775</v>
       </c>
       <c r="C210" t="n">
-        <v>0.799859160747524</v>
+        <v>0.79671721381474</v>
       </c>
       <c r="D210" t="n">
-        <v>0.924496925554041</v>
+        <v>0.912657755666811</v>
       </c>
     </row>
     <row r="211">
@@ -21124,13 +21184,13 @@
         <v>213</v>
       </c>
       <c r="B211" t="n">
-        <v>0.0315944498362185</v>
+        <v>0.0329202895368488</v>
       </c>
       <c r="C211" t="n">
-        <v>0.000937837814048607</v>
+        <v>-0.000715473771446061</v>
       </c>
       <c r="D211" t="n">
-        <v>0.0622510618583883</v>
+        <v>0.0665560528451438</v>
       </c>
     </row>
     <row r="212">
@@ -21138,13 +21198,13 @@
         <v>214</v>
       </c>
       <c r="B212" t="n">
-        <v>76.224531456996</v>
+        <v>21.2322749774877</v>
       </c>
       <c r="C212" t="n">
-        <v>72.2459302031424</v>
+        <v>19.1334882172825</v>
       </c>
       <c r="D212" t="n">
-        <v>80.2031327108495</v>
+        <v>23.3310617376929</v>
       </c>
     </row>
     <row r="213">
@@ -21152,13 +21212,13 @@
         <v>215</v>
       </c>
       <c r="B213" t="n">
-        <v>0.0919094963628536</v>
+        <v>0.0562204659889721</v>
       </c>
       <c r="C213" t="n">
-        <v>0.0433035813321835</v>
+        <v>0.0176948320799624</v>
       </c>
       <c r="D213" t="n">
-        <v>0.140515411393524</v>
+        <v>0.0947460998979818</v>
       </c>
     </row>
     <row r="214">
@@ -21166,13 +21226,13 @@
         <v>216</v>
       </c>
       <c r="B214" t="n">
-        <v>205.004985149418</v>
+        <v>234.004557745027</v>
       </c>
       <c r="C214" t="n">
-        <v>199.832352326609</v>
+        <v>228.046607453539</v>
       </c>
       <c r="D214" t="n">
-        <v>210.177617972227</v>
+        <v>239.962508036516</v>
       </c>
     </row>
     <row r="215">
@@ -21180,13 +21240,13 @@
         <v>217</v>
       </c>
       <c r="B215" t="n">
-        <v>0.20469019090289</v>
+        <v>0.218607585935196</v>
       </c>
       <c r="C215" t="n">
-        <v>0.143778846099261</v>
+        <v>0.156066291605851</v>
       </c>
       <c r="D215" t="n">
-        <v>0.265601535706518</v>
+        <v>0.281148880264541</v>
       </c>
     </row>
     <row r="216">
@@ -21194,13 +21254,13 @@
         <v>218</v>
       </c>
       <c r="B216" t="n">
-        <v>2.4757049990438</v>
+        <v>2.59322005632834</v>
       </c>
       <c r="C216" t="n">
-        <v>2.24043340657764</v>
+        <v>2.32689648299711</v>
       </c>
       <c r="D216" t="n">
-        <v>2.71097659150995</v>
+        <v>2.85954362965956</v>
       </c>
     </row>
     <row r="217">
@@ -21208,13 +21268,13 @@
         <v>219</v>
       </c>
       <c r="B217" t="n">
-        <v>0.207685126305573</v>
+        <v>0.152885618438533</v>
       </c>
       <c r="C217" t="n">
-        <v>0.139175833541132</v>
+        <v>0.0813020326647592</v>
       </c>
       <c r="D217" t="n">
-        <v>0.276194419070015</v>
+        <v>0.224469204212308</v>
       </c>
     </row>
     <row r="218">
@@ -21222,13 +21282,13 @@
         <v>220</v>
       </c>
       <c r="B218" t="n">
-        <v>0.795195005967313</v>
+        <v>0.669188519672906</v>
       </c>
       <c r="C218" t="n">
-        <v>0.708165196242601</v>
+        <v>0.575019569185976</v>
       </c>
       <c r="D218" t="n">
-        <v>0.882224815692026</v>
+        <v>0.763357470159836</v>
       </c>
     </row>
     <row r="219">
@@ -21236,13 +21296,13 @@
         <v>221</v>
       </c>
       <c r="B219" t="n">
-        <v>0.414472851025795</v>
+        <v>0.388111113788632</v>
       </c>
       <c r="C219" t="n">
-        <v>0.315911526038702</v>
+        <v>0.29138125742899</v>
       </c>
       <c r="D219" t="n">
-        <v>0.513034176012888</v>
+        <v>0.484840970148273</v>
       </c>
     </row>
     <row r="220">
@@ -21250,13 +21310,13 @@
         <v>222</v>
       </c>
       <c r="B220" t="n">
-        <v>0.857419761573366</v>
+        <v>0.837467427857557</v>
       </c>
       <c r="C220" t="n">
-        <v>0.788534861186892</v>
+        <v>0.777351369329494</v>
       </c>
       <c r="D220" t="n">
-        <v>0.926304661959841</v>
+        <v>0.897583486385621</v>
       </c>
     </row>
     <row r="221">
@@ -21264,13 +21324,13 @@
         <v>223</v>
       </c>
       <c r="B221" t="n">
-        <v>0.260371471845224</v>
+        <v>0.306920010273223</v>
       </c>
       <c r="C221" t="n">
-        <v>0.15407376966802</v>
+        <v>0.202163425534624</v>
       </c>
       <c r="D221" t="n">
-        <v>0.366669174022428</v>
+        <v>0.411676595011823</v>
       </c>
     </row>
     <row r="222">
@@ -21278,13 +21338,13 @@
         <v>224</v>
       </c>
       <c r="B222" t="n">
-        <v>0.391628768994924</v>
+        <v>0.454389716550987</v>
       </c>
       <c r="C222" t="n">
-        <v>0.284768122922065</v>
+        <v>0.354881024677776</v>
       </c>
       <c r="D222" t="n">
-        <v>0.498489415067784</v>
+        <v>0.553898408424198</v>
       </c>
     </row>
     <row r="223">
@@ -21292,13 +21352,13 @@
         <v>225</v>
       </c>
       <c r="B223" t="n">
-        <v>0.119761587888246</v>
+        <v>0.188784729757152</v>
       </c>
       <c r="C223" t="n">
-        <v>0.0193137957498564</v>
+        <v>0.065692997073219</v>
       </c>
       <c r="D223" t="n">
-        <v>0.220209380026636</v>
+        <v>0.311876462441086</v>
       </c>
     </row>
     <row r="224">
@@ -21306,13 +21366,13 @@
         <v>226</v>
       </c>
       <c r="B224" t="n">
-        <v>0.288066072935192</v>
+        <v>0.120090901697301</v>
       </c>
       <c r="C224" t="n">
-        <v>0.16848702750844</v>
+        <v>0.0406604189552409</v>
       </c>
       <c r="D224" t="n">
-        <v>0.407645118361944</v>
+        <v>0.199521384439362</v>
       </c>
     </row>
     <row r="225">
@@ -21320,13 +21380,13 @@
         <v>227</v>
       </c>
       <c r="B225" t="n">
-        <v>0.250522803829307</v>
+        <v>0.226798112612284</v>
       </c>
       <c r="C225" t="n">
-        <v>0.0669758961685219</v>
+        <v>0.0611298478131971</v>
       </c>
       <c r="D225" t="n">
-        <v>0.434069711490093</v>
+        <v>0.392466377411371</v>
       </c>
     </row>
     <row r="226">
@@ -21334,13 +21394,13 @@
         <v>228</v>
       </c>
       <c r="B226" t="n">
-        <v>0.215719819661351</v>
+        <v>0.238868299416899</v>
       </c>
       <c r="C226" t="n">
-        <v>0.0727352629574515</v>
+        <v>0.100089285174897</v>
       </c>
       <c r="D226" t="n">
-        <v>0.358704376365251</v>
+        <v>0.377647313658902</v>
       </c>
     </row>
     <row r="227">
@@ -21348,13 +21408,13 @@
         <v>229</v>
       </c>
       <c r="B227" t="n">
-        <v>0.0751383651709351</v>
+        <v>0.0750158114102536</v>
       </c>
       <c r="C227" t="n">
-        <v>-0.00577236799448685</v>
+        <v>-0.00121999261638177</v>
       </c>
       <c r="D227" t="n">
-        <v>0.156049098336357</v>
+        <v>0.151251615436889</v>
       </c>
     </row>
     <row r="228">
@@ -21362,13 +21422,13 @@
         <v>230</v>
       </c>
       <c r="B228" t="n">
-        <v>0.0100179420286002</v>
+        <v>0.00727335184521677</v>
       </c>
       <c r="C228" t="n">
-        <v>-0.0271447386328726</v>
+        <v>-0.0240088145063018</v>
       </c>
       <c r="D228" t="n">
-        <v>0.0471806226900729</v>
+        <v>0.0385555181967353</v>
       </c>
     </row>
     <row r="229">
@@ -21376,13 +21436,13 @@
         <v>231</v>
       </c>
       <c r="B229" t="n">
-        <v>0.125864709503828</v>
+        <v>0.125651633331537</v>
       </c>
       <c r="C229" t="n">
-        <v>-0.00407950897140247</v>
+        <v>0.000688510138391385</v>
       </c>
       <c r="D229" t="n">
-        <v>0.255808927979059</v>
+        <v>0.250614756524682</v>
       </c>
     </row>
     <row r="230">
@@ -21390,13 +21450,13 @@
         <v>232</v>
       </c>
       <c r="B230" t="n">
-        <v>0.117671658176753</v>
+        <v>0.185606613149726</v>
       </c>
       <c r="C230" t="n">
-        <v>0.0196506352962391</v>
+        <v>0.0651902633764647</v>
       </c>
       <c r="D230" t="n">
-        <v>0.215692681057267</v>
+        <v>0.306022962922987</v>
       </c>
     </row>
     <row r="231">
@@ -21404,13 +21464,13 @@
         <v>233</v>
       </c>
       <c r="B231" t="n">
-        <v>0.271465997768521</v>
+        <v>0.105143116861086</v>
       </c>
       <c r="C231" t="n">
-        <v>0.157736563498051</v>
+        <v>0.0316293919224897</v>
       </c>
       <c r="D231" t="n">
-        <v>0.385195432038992</v>
+        <v>0.178656841799683</v>
       </c>
     </row>
     <row r="232">
@@ -21418,13 +21478,13 @@
         <v>234</v>
       </c>
       <c r="B232" t="n">
-        <v>0.231130790415892</v>
+        <v>0.212593517405821</v>
       </c>
       <c r="C232" t="n">
-        <v>0.0370667488909316</v>
+        <v>0.0395686825441793</v>
       </c>
       <c r="D232" t="n">
-        <v>0.425194831940852</v>
+        <v>0.385618352267462</v>
       </c>
     </row>
     <row r="233">
@@ -21432,13 +21492,13 @@
         <v>235</v>
       </c>
       <c r="B233" t="n">
-        <v>0.160168848681822</v>
+        <v>0.180119632240799</v>
       </c>
       <c r="C233" t="n">
-        <v>0.0323225162062784</v>
+        <v>0.0533788017463787</v>
       </c>
       <c r="D233" t="n">
-        <v>0.288015181157366</v>
+        <v>0.30686046273522</v>
       </c>
     </row>
     <row r="234">
@@ -21446,13 +21506,13 @@
         <v>236</v>
       </c>
       <c r="B234" t="n">
-        <v>0.0651443859701154</v>
+        <v>0.0642371520500471</v>
       </c>
       <c r="C234" t="n">
-        <v>-0.00854333561541859</v>
+        <v>-0.00469804802082474</v>
       </c>
       <c r="D234" t="n">
-        <v>0.138832107555649</v>
+        <v>0.133172352120919</v>
       </c>
     </row>
     <row r="235">
@@ -21460,13 +21520,13 @@
         <v>237</v>
       </c>
       <c r="B235" t="n">
-        <v>0.302123698977426</v>
+        <v>0.087532102713209</v>
       </c>
       <c r="C235" t="n">
-        <v>0.26579983722521</v>
+        <v>0.0570776788603465</v>
       </c>
       <c r="D235" t="n">
-        <v>0.338447560729643</v>
+        <v>0.117986526566072</v>
       </c>
     </row>
     <row r="236">
@@ -21474,13 +21534,13 @@
         <v>238</v>
       </c>
       <c r="B236" t="n">
-        <v>0.392329168349821</v>
+        <v>0.181067301186177</v>
       </c>
       <c r="C236" t="n">
-        <v>0.285057558968169</v>
+        <v>0.0818591671071049</v>
       </c>
       <c r="D236" t="n">
-        <v>0.499600777731472</v>
+        <v>0.280275435265249</v>
       </c>
     </row>
     <row r="237">
@@ -21488,13 +21548,13 @@
         <v>239</v>
       </c>
       <c r="B237" t="n">
-        <v>1.09504302509544</v>
+        <v>0.992446903923166</v>
       </c>
       <c r="C237" t="n">
-        <v>1.05729460100227</v>
+        <v>0.960259252313474</v>
       </c>
       <c r="D237" t="n">
-        <v>1.13279144918861</v>
+        <v>1.02463455553286</v>
       </c>
     </row>
     <row r="238">
@@ -21502,13 +21562,13 @@
         <v>240</v>
       </c>
       <c r="B238" t="n">
-        <v>0.977314582027291</v>
+        <v>0.866764402250597</v>
       </c>
       <c r="C238" t="n">
-        <v>0.873862394875023</v>
+        <v>0.771243051325179</v>
       </c>
       <c r="D238" t="n">
-        <v>1.08076676917956</v>
+        <v>0.962285753176015</v>
       </c>
     </row>
     <row r="239">
@@ -21516,13 +21576,13 @@
         <v>239</v>
       </c>
       <c r="B239" t="n">
-        <v>0.801236856008271</v>
+        <v>0.910652472469981</v>
       </c>
       <c r="C239" t="n">
-        <v>0.762375717167069</v>
+        <v>0.877647897515281</v>
       </c>
       <c r="D239" t="n">
-        <v>0.840097994849474</v>
+        <v>0.94365704742468</v>
       </c>
     </row>
     <row r="240">
@@ -21530,13 +21590,13 @@
         <v>240</v>
       </c>
       <c r="B240" t="n">
-        <v>0.684927502001888</v>
+        <v>0.785033265030138</v>
       </c>
       <c r="C240" t="n">
-        <v>0.585844266469148</v>
+        <v>0.691657331645601</v>
       </c>
       <c r="D240" t="n">
-        <v>0.784010737534628</v>
+        <v>0.878409198414675</v>
       </c>
     </row>
     <row r="241">
@@ -21544,13 +21604,13 @@
         <v>241</v>
       </c>
       <c r="B241" t="n">
-        <v>0.475231817284653</v>
+        <v>0.463931509149193</v>
       </c>
       <c r="C241" t="n">
-        <v>0.334705794048404</v>
+        <v>0.322094124731201</v>
       </c>
       <c r="D241" t="n">
-        <v>0.615757840520902</v>
+        <v>0.605768893567186</v>
       </c>
     </row>
     <row r="242">
@@ -21558,13 +21618,13 @@
         <v>242</v>
       </c>
       <c r="B242" t="n">
-        <v>0.332710266233189</v>
+        <v>0.377619129994324</v>
       </c>
       <c r="C242" t="n">
-        <v>0.20714881976094</v>
+        <v>0.247778368249568</v>
       </c>
       <c r="D242" t="n">
-        <v>0.458271712705437</v>
+        <v>0.507459891739081</v>
       </c>
     </row>
     <row r="243">
@@ -21572,20 +21632,28 @@
         <v>243</v>
       </c>
       <c r="B243" t="n">
-        <v>0.173342107857525</v>
-      </c>
-      <c r="C243"/>
-      <c r="D243"/>
+        <v>0.184055651541142</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.0291576982845084</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.338953604797776</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
         <v>244</v>
       </c>
       <c r="B244" t="n">
-        <v>0.0252668951665274</v>
-      </c>
-      <c r="C244"/>
-      <c r="D244"/>
+        <v>0.033564774496406</v>
+      </c>
+      <c r="C244" t="n">
+        <v>-0.00634256333149893</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0734721123243108</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24996,8 +25064,12 @@
       <c r="B243" t="n">
         <v>0.333222075007981</v>
       </c>
-      <c r="C243"/>
-      <c r="D243"/>
+      <c r="C243" t="n">
+        <v>0.217486833737178</v>
+      </c>
+      <c r="D243" t="n">
+        <v>0.448957316278784</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="s">
@@ -25006,8 +25078,12 @@
       <c r="B244" t="n">
         <v>0.0429636079031514</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>-0.00765317721378644</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0935803930200893</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -28432,8 +28508,12 @@
       <c r="B244" t="n">
         <v>0.047375418230297</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>-0.00360071695783421</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.0983515534184281</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31858,8 +31938,12 @@
       <c r="B244" t="n">
         <v>0.0694082564273087</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.0217904571360037</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.117026055718614</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35284,8 +35368,12 @@
       <c r="B244" t="n">
         <v>0.27209795652894</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.165444795776831</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.378751117281048</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -38710,8 +38798,12 @@
       <c r="B244" t="n">
         <v>0.0442901023824796</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.0114831927195103</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.077097012045449</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -42136,8 +42228,12 @@
       <c r="B244" t="n">
         <v>0.29413571914714</v>
       </c>
-      <c r="C244"/>
-      <c r="D244"/>
+      <c r="C244" t="n">
+        <v>0.225515757265132</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.362755681029149</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/_byStates.xlsx
+++ b/_byStates.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="249">
   <si>
     <t xml:space="preserve">Indicator</t>
   </si>
@@ -640,6 +640,9 @@
     <t xml:space="preserve">EPI : First dose measles vaccine for children below 12 months</t>
   </si>
   <si>
+    <t xml:space="preserve">EPI : Second dose measles vaccine for children below 12 months</t>
+  </si>
+  <si>
     <t xml:space="preserve">EPI : Full EPI coverage for children below 12 months (without rotavirus vaccine)</t>
   </si>
   <si>
@@ -4475,16 +4478,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.35</v>
+        <v>35.46</v>
       </c>
       <c r="D199" t="n">
-        <v>0.23</v>
+        <v>22.75</v>
       </c>
       <c r="E199" t="n">
-        <v>0.48</v>
+        <v>48.17</v>
       </c>
     </row>
     <row r="200">
@@ -4492,16 +4495,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1245.38</v>
+        <v>12.45</v>
       </c>
       <c r="D200" t="n">
-        <v>1122.81</v>
+        <v>11.23</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.68</v>
       </c>
     </row>
     <row r="201">
@@ -4560,16 +4563,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="205">
@@ -4577,16 +4580,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1113.79</v>
+        <v>11.14</v>
       </c>
       <c r="D205" t="n">
-        <v>1062.67</v>
+        <v>10.63</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="206">
@@ -4713,16 +4716,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.12</v>
+        <v>11.51</v>
       </c>
       <c r="D213" t="n">
-        <v>0.05</v>
+        <v>4.9</v>
       </c>
       <c r="E213" t="n">
-        <v>0.18</v>
+        <v>18.12</v>
       </c>
     </row>
     <row r="214">
@@ -4730,16 +4733,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>26830.26</v>
+        <v>268.3</v>
       </c>
       <c r="D214" t="n">
-        <v>26128.3</v>
+        <v>261.28</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>275.32</v>
       </c>
     </row>
     <row r="215">
@@ -4747,16 +4750,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.13</v>
+        <v>13.12</v>
       </c>
       <c r="D215" t="n">
-        <v>0.07</v>
+        <v>6.93</v>
       </c>
       <c r="E215" t="n">
-        <v>0.19</v>
+        <v>19.31</v>
       </c>
     </row>
     <row r="216">
@@ -4764,16 +4767,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>242.08</v>
+        <v>2.42</v>
       </c>
       <c r="D216" t="n">
-        <v>215.06</v>
+        <v>2.15</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.69</v>
       </c>
     </row>
     <row r="217">
@@ -5135,7 +5138,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -5233,6 +5236,23 @@
       </c>
       <c r="E243" t="n">
         <v>69.25</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E244" t="n">
+        <v>13.33</v>
       </c>
     </row>
   </sheetData>
@@ -8620,16 +8640,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.29</v>
+        <v>29.47</v>
       </c>
       <c r="D199" t="n">
-        <v>0.19</v>
+        <v>19.21</v>
       </c>
       <c r="E199" t="n">
-        <v>0.4</v>
+        <v>39.73</v>
       </c>
     </row>
     <row r="200">
@@ -8637,16 +8657,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1265.37</v>
+        <v>12.65</v>
       </c>
       <c r="D200" t="n">
-        <v>1220.83</v>
+        <v>12.21</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.1</v>
       </c>
     </row>
     <row r="201">
@@ -8705,16 +8725,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.19</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.02</v>
+        <v>1.86</v>
       </c>
     </row>
     <row r="205">
@@ -8722,16 +8742,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1113.75</v>
+        <v>11.14</v>
       </c>
       <c r="D205" t="n">
-        <v>1065.74</v>
+        <v>10.66</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.62</v>
       </c>
     </row>
     <row r="206">
@@ -8858,16 +8878,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.01</v>
+        <v>1.46</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E213" t="n">
-        <v>0.03</v>
+        <v>3.27</v>
       </c>
     </row>
     <row r="214">
@@ -8875,16 +8895,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>28915.77</v>
+        <v>289.16</v>
       </c>
       <c r="D214" t="n">
-        <v>28058.62</v>
+        <v>280.59</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>297.73</v>
       </c>
     </row>
     <row r="215">
@@ -8892,16 +8912,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.07</v>
+        <v>6.91</v>
       </c>
       <c r="D215" t="n">
-        <v>0.02</v>
+        <v>2.39</v>
       </c>
       <c r="E215" t="n">
-        <v>0.11</v>
+        <v>11.43</v>
       </c>
     </row>
     <row r="216">
@@ -8909,16 +8929,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>292.67</v>
+        <v>2.93</v>
       </c>
       <c r="D216" t="n">
-        <v>259.76</v>
+        <v>2.6</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="217">
@@ -9280,7 +9300,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -9378,6 +9398,23 @@
       </c>
       <c r="E243" t="n">
         <v>7.66</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>52.13</v>
+      </c>
+      <c r="D244" t="n">
+        <v>39.54</v>
+      </c>
+      <c r="E244" t="n">
+        <v>64.71</v>
       </c>
     </row>
   </sheetData>
@@ -12765,16 +12802,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.45</v>
+        <v>44.52</v>
       </c>
       <c r="D199" t="n">
-        <v>0.32</v>
+        <v>31.69</v>
       </c>
       <c r="E199" t="n">
-        <v>0.57</v>
+        <v>57.36</v>
       </c>
     </row>
     <row r="200">
@@ -12782,16 +12819,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1197.33</v>
+        <v>11.97</v>
       </c>
       <c r="D200" t="n">
-        <v>1134.72</v>
+        <v>11.35</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.6</v>
       </c>
     </row>
     <row r="201">
@@ -12850,16 +12887,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.29</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.02</v>
+        <v>2.28</v>
       </c>
     </row>
     <row r="205">
@@ -12867,16 +12904,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1050.77</v>
+        <v>10.51</v>
       </c>
       <c r="D205" t="n">
-        <v>988.36</v>
+        <v>9.88</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.13</v>
       </c>
     </row>
     <row r="206">
@@ -13003,16 +13040,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.15</v>
+        <v>15.18</v>
       </c>
       <c r="D213" t="n">
-        <v>0.09</v>
+        <v>8.87</v>
       </c>
       <c r="E213" t="n">
-        <v>0.21</v>
+        <v>21.48</v>
       </c>
     </row>
     <row r="214">
@@ -13020,16 +13057,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>24365.53</v>
+        <v>243.66</v>
       </c>
       <c r="D214" t="n">
-        <v>23572.47</v>
+        <v>235.72</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>251.59</v>
       </c>
     </row>
     <row r="215">
@@ -13037,16 +13074,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.42</v>
+        <v>41.8</v>
       </c>
       <c r="D215" t="n">
-        <v>0.3</v>
+        <v>30.28</v>
       </c>
       <c r="E215" t="n">
-        <v>0.53</v>
+        <v>53.33</v>
       </c>
     </row>
     <row r="216">
@@ -13054,16 +13091,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>236.21</v>
+        <v>2.36</v>
       </c>
       <c r="D216" t="n">
-        <v>205.85</v>
+        <v>2.06</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="217">
@@ -13425,7 +13462,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -13523,6 +13560,23 @@
       </c>
       <c r="E243" t="n">
         <v>81.11</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E244" t="n">
+        <v>10.81</v>
       </c>
     </row>
   </sheetData>
@@ -16910,16 +16964,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.07</v>
+        <v>6.95</v>
       </c>
       <c r="D199" t="n">
-        <v>0.02</v>
+        <v>1.97</v>
       </c>
       <c r="E199" t="n">
-        <v>0.12</v>
+        <v>11.93</v>
       </c>
     </row>
     <row r="200">
@@ -16927,16 +16981,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1229.13</v>
+        <v>12.29</v>
       </c>
       <c r="D200" t="n">
-        <v>1185.03</v>
+        <v>11.85</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.73</v>
       </c>
     </row>
     <row r="201">
@@ -16995,16 +17049,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01</v>
+        <v>1.1</v>
       </c>
     </row>
     <row r="205">
@@ -17012,16 +17066,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1079.05</v>
+        <v>10.79</v>
       </c>
       <c r="D205" t="n">
-        <v>1029.79</v>
+        <v>10.3</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="206">
@@ -17148,16 +17202,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.03</v>
+        <v>3.22</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E213" t="n">
-        <v>0.06</v>
+        <v>6.49</v>
       </c>
     </row>
     <row r="214">
@@ -17165,16 +17219,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>28053.51</v>
+        <v>280.54</v>
       </c>
       <c r="D214" t="n">
-        <v>27124.47</v>
+        <v>271.24</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>289.83</v>
       </c>
     </row>
     <row r="215">
@@ -17182,16 +17236,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.11</v>
+        <v>10.79</v>
       </c>
       <c r="D215" t="n">
-        <v>0.06</v>
+        <v>5.51</v>
       </c>
       <c r="E215" t="n">
-        <v>0.16</v>
+        <v>16.06</v>
       </c>
     </row>
     <row r="216">
@@ -17199,16 +17253,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>248.3</v>
+        <v>2.48</v>
       </c>
       <c r="D216" t="n">
-        <v>220.86</v>
+        <v>2.21</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="217">
@@ -17570,7 +17624,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -17668,6 +17722,23 @@
       </c>
       <c r="E243" t="n">
         <v>16.61</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>22.15</v>
+      </c>
+      <c r="D244" t="n">
+        <v>13.31</v>
+      </c>
+      <c r="E244" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -21055,16 +21126,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.07</v>
+        <v>7.06</v>
       </c>
       <c r="D199" t="n">
-        <v>0.03</v>
+        <v>2.97</v>
       </c>
       <c r="E199" t="n">
-        <v>0.11</v>
+        <v>11.15</v>
       </c>
     </row>
     <row r="200">
@@ -21072,16 +21143,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1242.76</v>
+        <v>12.43</v>
       </c>
       <c r="D200" t="n">
-        <v>1199.08</v>
+        <v>11.99</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.86</v>
       </c>
     </row>
     <row r="201">
@@ -21140,7 +21211,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -21157,16 +21228,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1098.41</v>
+        <v>10.98</v>
       </c>
       <c r="D205" t="n">
-        <v>1049.98</v>
+        <v>10.5</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="206">
@@ -21293,16 +21364,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1</v>
+        <v>9.87</v>
       </c>
       <c r="D213" t="n">
-        <v>0.05</v>
+        <v>5.32</v>
       </c>
       <c r="E213" t="n">
-        <v>0.14</v>
+        <v>14.42</v>
       </c>
     </row>
     <row r="214">
@@ -21310,16 +21381,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>27434.73</v>
+        <v>274.35</v>
       </c>
       <c r="D214" t="n">
-        <v>26623.7</v>
+        <v>266.24</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>282.46</v>
       </c>
     </row>
     <row r="215">
@@ -21327,16 +21398,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.13</v>
+        <v>13.39</v>
       </c>
       <c r="D215" t="n">
-        <v>0.08</v>
+        <v>7.7</v>
       </c>
       <c r="E215" t="n">
-        <v>0.19</v>
+        <v>19.07</v>
       </c>
     </row>
     <row r="216">
@@ -21344,16 +21415,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>211.05</v>
+        <v>2.11</v>
       </c>
       <c r="D216" t="n">
-        <v>186.15</v>
+        <v>1.86</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.36</v>
       </c>
     </row>
     <row r="217">
@@ -21715,7 +21786,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -21813,6 +21884,23 @@
       </c>
       <c r="E243" t="n">
         <v>51.67</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="E244" t="n">
+        <v>15.2</v>
       </c>
     </row>
   </sheetData>
@@ -25200,16 +25288,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.47</v>
+        <v>47.12</v>
       </c>
       <c r="D199" t="n">
-        <v>0.38</v>
+        <v>38.31</v>
       </c>
       <c r="E199" t="n">
-        <v>0.56</v>
+        <v>55.93</v>
       </c>
     </row>
     <row r="200">
@@ -25217,16 +25305,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>923.38</v>
+        <v>9.23</v>
       </c>
       <c r="D200" t="n">
-        <v>870.28</v>
+        <v>8.7</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>9.76</v>
       </c>
     </row>
     <row r="201">
@@ -25285,16 +25373,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0.01</v>
+        <v>0.71</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.03</v>
+        <v>3.02</v>
       </c>
     </row>
     <row r="205">
@@ -25302,16 +25390,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>838.46</v>
+        <v>8.38</v>
       </c>
       <c r="D205" t="n">
-        <v>630.2</v>
+        <v>6.3</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>10.47</v>
       </c>
     </row>
     <row r="206">
@@ -25438,16 +25526,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.23</v>
+        <v>23.16</v>
       </c>
       <c r="D213" t="n">
-        <v>0.16</v>
+        <v>16.17</v>
       </c>
       <c r="E213" t="n">
-        <v>0.3</v>
+        <v>30.15</v>
       </c>
     </row>
     <row r="214">
@@ -25455,16 +25543,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25386.97</v>
+        <v>253.87</v>
       </c>
       <c r="D214" t="n">
-        <v>24624.52</v>
+        <v>246.25</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>261.49</v>
       </c>
     </row>
     <row r="215">
@@ -25472,16 +25560,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.2</v>
+        <v>20.3</v>
       </c>
       <c r="D215" t="n">
-        <v>0.12</v>
+        <v>12.24</v>
       </c>
       <c r="E215" t="n">
-        <v>0.28</v>
+        <v>28.37</v>
       </c>
     </row>
     <row r="216">
@@ -25489,16 +25577,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>249.35</v>
+        <v>2.49</v>
       </c>
       <c r="D216" t="n">
-        <v>224.81</v>
+        <v>2.25</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.74</v>
       </c>
     </row>
     <row r="217">
@@ -25860,7 +25948,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -25958,6 +26046,23 @@
       </c>
       <c r="E243" t="n">
         <v>58.26</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>8.14</v>
+      </c>
+      <c r="D244" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="E244" t="n">
+        <v>14.2</v>
       </c>
     </row>
   </sheetData>
@@ -29345,16 +29450,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.77</v>
+        <v>77.43</v>
       </c>
       <c r="D199" t="n">
-        <v>0.66</v>
+        <v>66.43</v>
       </c>
       <c r="E199" t="n">
-        <v>0.88</v>
+        <v>88.42</v>
       </c>
     </row>
     <row r="200">
@@ -29362,16 +29467,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1208.84</v>
+        <v>12.09</v>
       </c>
       <c r="D200" t="n">
-        <v>1153.41</v>
+        <v>11.53</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.64</v>
       </c>
     </row>
     <row r="201">
@@ -29430,7 +29535,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -29447,16 +29552,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1073.49</v>
+        <v>10.73</v>
       </c>
       <c r="D205" t="n">
-        <v>1018.78</v>
+        <v>10.19</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="206">
@@ -29583,16 +29688,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.18</v>
+        <v>18.04</v>
       </c>
       <c r="D213" t="n">
-        <v>0.1</v>
+        <v>9.93</v>
       </c>
       <c r="E213" t="n">
-        <v>0.26</v>
+        <v>26.14</v>
       </c>
     </row>
     <row r="214">
@@ -29600,16 +29705,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25508.29</v>
+        <v>255.08</v>
       </c>
       <c r="D214" t="n">
-        <v>24960.21</v>
+        <v>249.6</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>260.56</v>
       </c>
     </row>
     <row r="215">
@@ -29617,16 +29722,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.19</v>
+        <v>18.79</v>
       </c>
       <c r="D215" t="n">
-        <v>0.13</v>
+        <v>12.75</v>
       </c>
       <c r="E215" t="n">
-        <v>0.25</v>
+        <v>24.83</v>
       </c>
     </row>
     <row r="216">
@@ -29634,16 +29739,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>209.86</v>
+        <v>2.1</v>
       </c>
       <c r="D216" t="n">
-        <v>174.37</v>
+        <v>1.74</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="217">
@@ -30005,7 +30110,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -30103,6 +30208,23 @@
       </c>
       <c r="E243" t="n">
         <v>63.14</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E244" t="n">
+        <v>0.63</v>
       </c>
     </row>
   </sheetData>
@@ -33490,16 +33612,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.45</v>
+        <v>44.55</v>
       </c>
       <c r="D199" t="n">
-        <v>0.34</v>
+        <v>33.67</v>
       </c>
       <c r="E199" t="n">
-        <v>0.55</v>
+        <v>55.43</v>
       </c>
     </row>
     <row r="200">
@@ -33507,16 +33629,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1308.03</v>
+        <v>13.08</v>
       </c>
       <c r="D200" t="n">
-        <v>1262.25</v>
+        <v>12.62</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.54</v>
       </c>
     </row>
     <row r="201">
@@ -33575,16 +33697,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.12</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="205">
@@ -33592,16 +33714,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1183.49</v>
+        <v>11.83</v>
       </c>
       <c r="D205" t="n">
-        <v>1133.57</v>
+        <v>11.34</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>12.33</v>
       </c>
     </row>
     <row r="206">
@@ -33728,16 +33850,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.09</v>
+        <v>9.46</v>
       </c>
       <c r="D213" t="n">
-        <v>0.04</v>
+        <v>4.12</v>
       </c>
       <c r="E213" t="n">
-        <v>0.15</v>
+        <v>14.8</v>
       </c>
     </row>
     <row r="214">
@@ -33745,16 +33867,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25359.29</v>
+        <v>253.59</v>
       </c>
       <c r="D214" t="n">
-        <v>24826.33</v>
+        <v>248.26</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>258.92</v>
       </c>
     </row>
     <row r="215">
@@ -33762,16 +33884,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.16</v>
+        <v>16.22</v>
       </c>
       <c r="D215" t="n">
-        <v>0.11</v>
+        <v>10.53</v>
       </c>
       <c r="E215" t="n">
-        <v>0.22</v>
+        <v>21.91</v>
       </c>
     </row>
     <row r="216">
@@ -33779,16 +33901,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>267.08</v>
+        <v>2.67</v>
       </c>
       <c r="D216" t="n">
-        <v>244.2</v>
+        <v>2.44</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="217">
@@ -34150,7 +34272,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -34248,6 +34370,23 @@
       </c>
       <c r="E243" t="n">
         <v>59.96</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>5.51</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="E244" t="n">
+        <v>9.91</v>
       </c>
     </row>
   </sheetData>
@@ -37635,16 +37774,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.16</v>
+        <v>15.95</v>
       </c>
       <c r="D199" t="n">
-        <v>0.09</v>
+        <v>8.99</v>
       </c>
       <c r="E199" t="n">
-        <v>0.23</v>
+        <v>22.91</v>
       </c>
     </row>
     <row r="200">
@@ -37652,16 +37791,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1255.11</v>
+        <v>12.55</v>
       </c>
       <c r="D200" t="n">
-        <v>1186.18</v>
+        <v>11.86</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.24</v>
       </c>
     </row>
     <row r="201">
@@ -37720,16 +37859,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.43</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.05</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.05</v>
+        <v>5.37</v>
       </c>
     </row>
     <row r="205">
@@ -37737,16 +37876,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1121.3</v>
+        <v>11.21</v>
       </c>
       <c r="D205" t="n">
-        <v>1061.04</v>
+        <v>10.61</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.82</v>
       </c>
     </row>
     <row r="206">
@@ -37873,16 +38012,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.13</v>
+        <v>12.67</v>
       </c>
       <c r="D213" t="n">
-        <v>0.06</v>
+        <v>6.46</v>
       </c>
       <c r="E213" t="n">
-        <v>0.19</v>
+        <v>18.89</v>
       </c>
     </row>
     <row r="214">
@@ -37890,16 +38029,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25248.39</v>
+        <v>252.48</v>
       </c>
       <c r="D214" t="n">
-        <v>24634.75</v>
+        <v>246.35</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>258.62</v>
       </c>
     </row>
     <row r="215">
@@ -37907,16 +38046,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.25</v>
+        <v>24.98</v>
       </c>
       <c r="D215" t="n">
-        <v>0.18</v>
+        <v>17.85</v>
       </c>
       <c r="E215" t="n">
-        <v>0.32</v>
+        <v>32.11</v>
       </c>
     </row>
     <row r="216">
@@ -37924,16 +38063,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>207.29</v>
+        <v>2.07</v>
       </c>
       <c r="D216" t="n">
-        <v>176.84</v>
+        <v>1.77</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.38</v>
       </c>
     </row>
     <row r="217">
@@ -38295,7 +38434,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -38393,6 +38532,23 @@
       </c>
       <c r="E243" t="n">
         <v>35.01</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="E244" t="n">
+        <v>12.42</v>
       </c>
     </row>
   </sheetData>
@@ -41780,16 +41936,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.18</v>
+        <v>17.81</v>
       </c>
       <c r="D199" t="n">
-        <v>0.12</v>
+        <v>11.63</v>
       </c>
       <c r="E199" t="n">
-        <v>0.24</v>
+        <v>24</v>
       </c>
     </row>
     <row r="200">
@@ -41797,16 +41953,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1251.84</v>
+        <v>12.52</v>
       </c>
       <c r="D200" t="n">
-        <v>1210.69</v>
+        <v>12.11</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.93</v>
       </c>
     </row>
     <row r="201">
@@ -41865,16 +42021,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.01</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.01</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="205">
@@ -41882,16 +42038,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1097.25</v>
+        <v>10.97</v>
       </c>
       <c r="D205" t="n">
-        <v>1045.71</v>
+        <v>10.46</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="206">
@@ -42018,16 +42174,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.08</v>
+        <v>7.5</v>
       </c>
       <c r="D213" t="n">
-        <v>0.03</v>
+        <v>3.49</v>
       </c>
       <c r="E213" t="n">
-        <v>0.12</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="214">
@@ -42035,16 +42191,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>27574.75</v>
+        <v>275.75</v>
       </c>
       <c r="D214" t="n">
-        <v>26792.37</v>
+        <v>267.92</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>283.57</v>
       </c>
     </row>
     <row r="215">
@@ -42052,16 +42208,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.13</v>
+        <v>12.95</v>
       </c>
       <c r="D215" t="n">
-        <v>0.08</v>
+        <v>7.75</v>
       </c>
       <c r="E215" t="n">
-        <v>0.18</v>
+        <v>18.15</v>
       </c>
     </row>
     <row r="216">
@@ -42069,16 +42225,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>207.52</v>
+        <v>2.08</v>
       </c>
       <c r="D216" t="n">
-        <v>186.28</v>
+        <v>1.86</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="217">
@@ -42440,7 +42596,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -42538,6 +42694,23 @@
       </c>
       <c r="E243" t="n">
         <v>53.74</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>19.23</v>
+      </c>
+      <c r="D244" t="n">
+        <v>12.05</v>
+      </c>
+      <c r="E244" t="n">
+        <v>26.41</v>
       </c>
     </row>
   </sheetData>
@@ -45925,16 +46098,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.13</v>
+        <v>12.85</v>
       </c>
       <c r="D199" t="n">
-        <v>0.05</v>
+        <v>5.15</v>
       </c>
       <c r="E199" t="n">
-        <v>0.21</v>
+        <v>20.54</v>
       </c>
     </row>
     <row r="200">
@@ -45942,16 +46115,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1258.97</v>
+        <v>12.59</v>
       </c>
       <c r="D200" t="n">
-        <v>1213.1</v>
+        <v>12.13</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="201">
@@ -46010,7 +46183,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -46027,16 +46200,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1107.07</v>
+        <v>11.07</v>
       </c>
       <c r="D205" t="n">
-        <v>1049.26</v>
+        <v>10.49</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.65</v>
       </c>
     </row>
     <row r="206">
@@ -46163,16 +46336,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.06</v>
+        <v>6.03</v>
       </c>
       <c r="D213" t="n">
-        <v>0.02</v>
+        <v>1.84</v>
       </c>
       <c r="E213" t="n">
-        <v>0.1</v>
+        <v>10.21</v>
       </c>
     </row>
     <row r="214">
@@ -46180,16 +46353,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>27929.85</v>
+        <v>279.3</v>
       </c>
       <c r="D214" t="n">
-        <v>26874.8</v>
+        <v>268.75</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>289.85</v>
       </c>
     </row>
     <row r="215">
@@ -46197,16 +46370,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.15</v>
+        <v>14.81</v>
       </c>
       <c r="D215" t="n">
-        <v>0.07</v>
+        <v>6.92</v>
       </c>
       <c r="E215" t="n">
-        <v>0.23</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="216">
@@ -46214,16 +46387,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>221.27</v>
+        <v>2.21</v>
       </c>
       <c r="D216" t="n">
-        <v>198.84</v>
+        <v>1.99</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.44</v>
       </c>
     </row>
     <row r="217">
@@ -46585,7 +46758,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -46683,6 +46856,23 @@
       </c>
       <c r="E243" t="n">
         <v>42.08</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>8.86</v>
+      </c>
+      <c r="D244" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="E244" t="n">
+        <v>14.17</v>
       </c>
     </row>
   </sheetData>
@@ -50070,16 +50260,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.52</v>
+        <v>52.43</v>
       </c>
       <c r="D199" t="n">
-        <v>0.43</v>
+        <v>42.84</v>
       </c>
       <c r="E199" t="n">
-        <v>0.62</v>
+        <v>62.01</v>
       </c>
     </row>
     <row r="200">
@@ -50087,16 +50277,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1207.19</v>
+        <v>12.07</v>
       </c>
       <c r="D200" t="n">
-        <v>1159.28</v>
+        <v>11.59</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.55</v>
       </c>
     </row>
     <row r="201">
@@ -50155,7 +50345,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -50172,16 +50362,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1069.45</v>
+        <v>10.69</v>
       </c>
       <c r="D205" t="n">
-        <v>1018.11</v>
+        <v>10.18</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.21</v>
       </c>
     </row>
     <row r="206">
@@ -50308,16 +50498,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.05</v>
+        <v>4.6</v>
       </c>
       <c r="D213" t="n">
-        <v>0.01</v>
+        <v>1.06</v>
       </c>
       <c r="E213" t="n">
-        <v>0.08</v>
+        <v>8.14</v>
       </c>
     </row>
     <row r="214">
@@ -50325,16 +50515,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25494.28</v>
+        <v>254.94</v>
       </c>
       <c r="D214" t="n">
-        <v>24862.61</v>
+        <v>248.63</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>261.26</v>
       </c>
     </row>
     <row r="215">
@@ -50342,16 +50532,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.23</v>
+        <v>23.04</v>
       </c>
       <c r="D215" t="n">
-        <v>0.17</v>
+        <v>16.59</v>
       </c>
       <c r="E215" t="n">
-        <v>0.29</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="216">
@@ -50359,16 +50549,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>277.68</v>
+        <v>2.78</v>
       </c>
       <c r="D216" t="n">
-        <v>250.89</v>
+        <v>2.51</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="217">
@@ -50730,7 +50920,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -50828,6 +51018,23 @@
       </c>
       <c r="E243" t="n">
         <v>36.1</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E244" t="n">
+        <v>7.35</v>
       </c>
     </row>
   </sheetData>
@@ -54215,16 +54422,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>1.93</v>
+        <v>192.5</v>
       </c>
       <c r="D199" t="n">
-        <v>1.69</v>
+        <v>169.38</v>
       </c>
       <c r="E199" t="n">
-        <v>2.16</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="200">
@@ -54232,16 +54439,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1089.69</v>
+        <v>10.9</v>
       </c>
       <c r="D200" t="n">
-        <v>1030.14</v>
+        <v>10.3</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="201">
@@ -54300,16 +54507,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>1.54</v>
+        <v>154.08</v>
       </c>
       <c r="D204" t="n">
-        <v>1.29</v>
+        <v>129.35</v>
       </c>
       <c r="E204" t="n">
-        <v>1.79</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="205">
@@ -54317,16 +54524,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>999.02</v>
+        <v>9.99</v>
       </c>
       <c r="D205" t="n">
-        <v>945.01</v>
+        <v>9.45</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>10.53</v>
       </c>
     </row>
     <row r="206">
@@ -54453,16 +54660,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>30.39</v>
+        <v>3039.49</v>
       </c>
       <c r="D213" t="n">
-        <v>28.71</v>
+        <v>2871.29</v>
       </c>
       <c r="E213" t="n">
-        <v>32.08</v>
+        <v>99.99</v>
       </c>
     </row>
     <row r="214">
@@ -54470,16 +54677,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>22027.57</v>
+        <v>220.28</v>
       </c>
       <c r="D214" t="n">
-        <v>21532.35</v>
+        <v>215.32</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>225.23</v>
       </c>
     </row>
     <row r="215">
@@ -54487,16 +54694,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.39</v>
+        <v>38.72</v>
       </c>
       <c r="D215" t="n">
-        <v>0.28</v>
+        <v>27.97</v>
       </c>
       <c r="E215" t="n">
-        <v>0.49</v>
+        <v>49.48</v>
       </c>
     </row>
     <row r="216">
@@ -54504,16 +54711,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>193.28</v>
+        <v>1.93</v>
       </c>
       <c r="D216" t="n">
-        <v>174.21</v>
+        <v>1.74</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="217">
@@ -54875,7 +55082,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -54973,6 +55180,23 @@
       </c>
       <c r="E243" t="n">
         <v>62.7</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="E244" t="n">
+        <v>9.36</v>
       </c>
     </row>
   </sheetData>
@@ -58360,16 +58584,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.52</v>
+        <v>51.99</v>
       </c>
       <c r="D199" t="n">
-        <v>0.4</v>
+        <v>40.23</v>
       </c>
       <c r="E199" t="n">
-        <v>0.64</v>
+        <v>63.75</v>
       </c>
     </row>
     <row r="200">
@@ -58377,16 +58601,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1195.86</v>
+        <v>11.96</v>
       </c>
       <c r="D200" t="n">
-        <v>1135.78</v>
+        <v>11.36</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.56</v>
       </c>
     </row>
     <row r="201">
@@ -58445,16 +58669,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.24</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.03</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.03</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="205">
@@ -58462,16 +58686,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1015.35</v>
+        <v>10.15</v>
       </c>
       <c r="D205" t="n">
-        <v>947.84</v>
+        <v>9.48</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="206">
@@ -58598,16 +58822,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.33</v>
+        <v>32.7</v>
       </c>
       <c r="D213" t="n">
-        <v>0.23</v>
+        <v>23.37</v>
       </c>
       <c r="E213" t="n">
-        <v>0.42</v>
+        <v>42.03</v>
       </c>
     </row>
     <row r="214">
@@ -58615,16 +58839,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25357.22</v>
+        <v>253.57</v>
       </c>
       <c r="D214" t="n">
-        <v>24695.8</v>
+        <v>246.96</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>260.19</v>
       </c>
     </row>
     <row r="215">
@@ -58632,16 +58856,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.22</v>
+        <v>21.96</v>
       </c>
       <c r="D215" t="n">
-        <v>0.15</v>
+        <v>14.71</v>
       </c>
       <c r="E215" t="n">
-        <v>0.29</v>
+        <v>29.21</v>
       </c>
     </row>
     <row r="216">
@@ -58649,16 +58873,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>197.45</v>
+        <v>1.97</v>
       </c>
       <c r="D216" t="n">
-        <v>179.12</v>
+        <v>1.79</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="217">
@@ -59020,7 +59244,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -59118,6 +59342,23 @@
       </c>
       <c r="E243" t="n">
         <v>52.39</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="D244" t="n">
+        <v>5.23</v>
+      </c>
+      <c r="E244" t="n">
+        <v>17.32</v>
       </c>
     </row>
   </sheetData>
@@ -62505,16 +62746,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.68</v>
+        <v>68.42</v>
       </c>
       <c r="D199" t="n">
-        <v>0.6</v>
+        <v>60.3</v>
       </c>
       <c r="E199" t="n">
-        <v>0.77</v>
+        <v>76.54</v>
       </c>
     </row>
     <row r="200">
@@ -62522,16 +62763,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1223.32</v>
+        <v>12.23</v>
       </c>
       <c r="D200" t="n">
-        <v>1158.49</v>
+        <v>11.58</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.88</v>
       </c>
     </row>
     <row r="201">
@@ -62590,7 +62831,7 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
@@ -62607,16 +62848,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1091.54</v>
+        <v>10.92</v>
       </c>
       <c r="D205" t="n">
-        <v>1031.41</v>
+        <v>10.31</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.52</v>
       </c>
     </row>
     <row r="206">
@@ -62743,16 +62984,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.07</v>
+        <v>7.36</v>
       </c>
       <c r="D213" t="n">
-        <v>0.03</v>
+        <v>3.27</v>
       </c>
       <c r="E213" t="n">
-        <v>0.11</v>
+        <v>11.45</v>
       </c>
     </row>
     <row r="214">
@@ -62760,16 +63001,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>26137.14</v>
+        <v>261.37</v>
       </c>
       <c r="D214" t="n">
-        <v>25388.75</v>
+        <v>253.89</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>268.86</v>
       </c>
     </row>
     <row r="215">
@@ -62777,16 +63018,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.22</v>
+        <v>21.6</v>
       </c>
       <c r="D215" t="n">
-        <v>0.15</v>
+        <v>14.87</v>
       </c>
       <c r="E215" t="n">
-        <v>0.28</v>
+        <v>28.33</v>
       </c>
     </row>
     <row r="216">
@@ -62794,16 +63035,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>280.43</v>
+        <v>2.8</v>
       </c>
       <c r="D216" t="n">
-        <v>257.62</v>
+        <v>2.58</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>3.03</v>
       </c>
     </row>
     <row r="217">
@@ -63165,7 +63406,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -63263,6 +63504,23 @@
       </c>
       <c r="E243" t="n">
         <v>60.74</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>9.99</v>
+      </c>
+      <c r="D244" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="E244" t="n">
+        <v>15.44</v>
       </c>
     </row>
   </sheetData>
@@ -66650,16 +66908,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.47</v>
+        <v>46.97</v>
       </c>
       <c r="D199" t="n">
-        <v>0.38</v>
+        <v>37.55</v>
       </c>
       <c r="E199" t="n">
-        <v>0.56</v>
+        <v>56.38</v>
       </c>
     </row>
     <row r="200">
@@ -66667,16 +66925,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1279.08</v>
+        <v>12.79</v>
       </c>
       <c r="D200" t="n">
-        <v>1221.64</v>
+        <v>12.22</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>13.37</v>
       </c>
     </row>
     <row r="201">
@@ -66735,16 +66993,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.02</v>
+        <v>0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.02</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="205">
@@ -66752,16 +67010,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1102.86</v>
+        <v>11.03</v>
       </c>
       <c r="D205" t="n">
-        <v>1030.47</v>
+        <v>10.3</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.75</v>
       </c>
     </row>
     <row r="206">
@@ -66888,16 +67146,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.07</v>
+        <v>6.83</v>
       </c>
       <c r="D213" t="n">
-        <v>0.02</v>
+        <v>2.12</v>
       </c>
       <c r="E213" t="n">
-        <v>0.12</v>
+        <v>11.54</v>
       </c>
     </row>
     <row r="214">
@@ -66905,16 +67163,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>30088.99</v>
+        <v>300.89</v>
       </c>
       <c r="D214" t="n">
-        <v>29098.51</v>
+        <v>290.99</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>310.79</v>
       </c>
     </row>
     <row r="215">
@@ -66922,16 +67180,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.06</v>
+        <v>6.01</v>
       </c>
       <c r="D215" t="n">
-        <v>0.02</v>
+        <v>2.24</v>
       </c>
       <c r="E215" t="n">
-        <v>0.1</v>
+        <v>9.79</v>
       </c>
     </row>
     <row r="216">
@@ -66939,16 +67197,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>266.12</v>
+        <v>2.66</v>
       </c>
       <c r="D216" t="n">
-        <v>239.21</v>
+        <v>2.39</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.93</v>
       </c>
     </row>
     <row r="217">
@@ -67310,7 +67568,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -67408,6 +67666,23 @@
       </c>
       <c r="E243" t="n">
         <v>10.42</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="D244" t="n">
+        <v>26.2</v>
+      </c>
+      <c r="E244" t="n">
+        <v>51.48</v>
       </c>
     </row>
   </sheetData>
@@ -70795,16 +71070,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.48</v>
+        <v>48.39</v>
       </c>
       <c r="D199" t="n">
-        <v>0.37</v>
+        <v>37.44</v>
       </c>
       <c r="E199" t="n">
-        <v>0.59</v>
+        <v>59.34</v>
       </c>
     </row>
     <row r="200">
@@ -70812,16 +71087,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1175.91</v>
+        <v>11.76</v>
       </c>
       <c r="D200" t="n">
-        <v>1062.24</v>
+        <v>10.62</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.9</v>
       </c>
     </row>
     <row r="201">
@@ -70880,16 +71155,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0.01</v>
+        <v>1.48</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.04</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.07</v>
+        <v>7.31</v>
       </c>
     </row>
     <row r="205">
@@ -70897,16 +71172,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1065.14</v>
+        <v>10.65</v>
       </c>
       <c r="D205" t="n">
-        <v>983.07</v>
+        <v>9.83</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.47</v>
       </c>
     </row>
     <row r="206">
@@ -71033,16 +71308,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.28</v>
+        <v>27.88</v>
       </c>
       <c r="D213" t="n">
-        <v>0.19</v>
+        <v>18.9</v>
       </c>
       <c r="E213" t="n">
-        <v>0.37</v>
+        <v>36.86</v>
       </c>
     </row>
     <row r="214">
@@ -71050,16 +71325,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>25003.12</v>
+        <v>250.03</v>
       </c>
       <c r="D214" t="n">
-        <v>24360.71</v>
+        <v>243.61</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>256.46</v>
       </c>
     </row>
     <row r="215">
@@ -71067,16 +71342,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.26</v>
+        <v>25.9</v>
       </c>
       <c r="D215" t="n">
-        <v>0.13</v>
+        <v>13.41</v>
       </c>
       <c r="E215" t="n">
-        <v>0.38</v>
+        <v>38.38</v>
       </c>
     </row>
     <row r="216">
@@ -71084,16 +71359,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>240.61</v>
+        <v>2.41</v>
       </c>
       <c r="D216" t="n">
-        <v>216.12</v>
+        <v>2.16</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.65</v>
       </c>
     </row>
     <row r="217">
@@ -71455,7 +71730,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -71553,6 +71828,23 @@
       </c>
       <c r="E243" t="n">
         <v>50.32</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="D244" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="E244" t="n">
+        <v>6.41</v>
       </c>
     </row>
   </sheetData>
@@ -74940,16 +75232,16 @@
         <v>205</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C199" t="n">
-        <v>0.22</v>
+        <v>21.98</v>
       </c>
       <c r="D199" t="n">
-        <v>0.14</v>
+        <v>13.5</v>
       </c>
       <c r="E199" t="n">
-        <v>0.3</v>
+        <v>30.47</v>
       </c>
     </row>
     <row r="200">
@@ -74957,16 +75249,16 @@
         <v>206</v>
       </c>
       <c r="B200" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C200" t="n">
-        <v>1235.88</v>
+        <v>12.36</v>
       </c>
       <c r="D200" t="n">
-        <v>1173.63</v>
+        <v>11.74</v>
       </c>
       <c r="E200" t="n">
-        <v>99.99</v>
+        <v>12.98</v>
       </c>
     </row>
     <row r="201">
@@ -75025,16 +75317,16 @@
         <v>210</v>
       </c>
       <c r="B204" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>0.26</v>
       </c>
       <c r="D204" t="n">
-        <v>-0.02</v>
+        <v>0.01</v>
       </c>
       <c r="E204" t="n">
-        <v>0.02</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="205">
@@ -75042,16 +75334,16 @@
         <v>211</v>
       </c>
       <c r="B205" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C205" t="n">
-        <v>1096.95</v>
+        <v>10.97</v>
       </c>
       <c r="D205" t="n">
-        <v>1038.62</v>
+        <v>10.39</v>
       </c>
       <c r="E205" t="n">
-        <v>99.99</v>
+        <v>11.55</v>
       </c>
     </row>
     <row r="206">
@@ -75178,16 +75470,16 @@
         <v>219</v>
       </c>
       <c r="B213" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C213" t="n">
-        <v>0.14</v>
+        <v>14.46</v>
       </c>
       <c r="D213" t="n">
-        <v>0.08</v>
+        <v>7.97</v>
       </c>
       <c r="E213" t="n">
-        <v>0.21</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="214">
@@ -75195,16 +75487,16 @@
         <v>220</v>
       </c>
       <c r="B214" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
-        <v>26166.76</v>
+        <v>261.67</v>
       </c>
       <c r="D214" t="n">
-        <v>25614.09</v>
+        <v>256.14</v>
       </c>
       <c r="E214" t="n">
-        <v>99.99</v>
+        <v>267.19</v>
       </c>
     </row>
     <row r="215">
@@ -75212,16 +75504,16 @@
         <v>221</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C215" t="n">
-        <v>0.18</v>
+        <v>17.73</v>
       </c>
       <c r="D215" t="n">
-        <v>0.13</v>
+        <v>12.75</v>
       </c>
       <c r="E215" t="n">
-        <v>0.23</v>
+        <v>22.71</v>
       </c>
     </row>
     <row r="216">
@@ -75229,16 +75521,16 @@
         <v>222</v>
       </c>
       <c r="B216" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C216" t="n">
-        <v>255.6</v>
+        <v>2.56</v>
       </c>
       <c r="D216" t="n">
-        <v>224.35</v>
+        <v>2.24</v>
       </c>
       <c r="E216" t="n">
-        <v>99.99</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="217">
@@ -75600,7 +75892,7 @@
     </row>
     <row r="238">
       <c r="A238" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B238" t="s">
         <v>9</v>
@@ -75698,6 +75990,23 @@
       </c>
       <c r="E243" t="n">
         <v>68.41</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="s">
+        <v>248</v>
+      </c>
+      <c r="B244" t="s">
+        <v>9</v>
+      </c>
+      <c r="C244" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="E244" t="n">
+        <v>8.32</v>
       </c>
     </row>
   </sheetData>
